--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_18_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_18_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2310559.835685675</v>
+        <v>2309823.55897876</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1601811.019238875</v>
+        <v>1601811.019238876</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681858</v>
+        <v>590120.9651681856</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9047868.615865355</v>
+        <v>9047868.615865357</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.5290748744748</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>244.7977605620224</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>244.9259523143184</v>
+        <v>260.9307006383672</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>285.1065283636206</v>
       </c>
       <c r="G11" t="n">
-        <v>292.1409409833356</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>125.4073253180534</v>
       </c>
       <c r="I11" t="n">
-        <v>62.73949387512457</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>71.68024160140131</v>
       </c>
       <c r="T11" t="n">
-        <v>98.47307515310011</v>
+        <v>98.47307515310013</v>
       </c>
       <c r="U11" t="n">
         <v>129.2483093153382</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.3458864055991</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>228.3427818836344</v>
       </c>
       <c r="X11" t="n">
         <v>248.6742640142492</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.1847904934246</v>
+        <v>159.2681135236208</v>
       </c>
       <c r="C12" t="n">
-        <v>48.83824881048076</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>23.92508845772534</v>
+        <v>23.92508845772535</v>
       </c>
       <c r="E12" t="n">
-        <v>33.8460985902536</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>21.31889696662907</v>
+        <v>21.31889696662908</v>
       </c>
       <c r="G12" t="n">
-        <v>13.5541784763083</v>
+        <v>13.55417847630832</v>
       </c>
       <c r="H12" t="n">
-        <v>107.7419192975101</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>76.80477854118098</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>41.54188777542849</v>
+        <v>163.7292228923487</v>
       </c>
       <c r="T12" t="n">
-        <v>197.2470968808262</v>
+        <v>75.05976176390602</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6386443953714</v>
+        <v>102.4513092784511</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>109.7213959227349</v>
       </c>
       <c r="W12" t="n">
-        <v>181.5259719415052</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.89635637376358</v>
+        <v>57.8963563737636</v>
       </c>
       <c r="C13" t="n">
-        <v>45.14921781428211</v>
+        <v>45.14921781428212</v>
       </c>
       <c r="D13" t="n">
-        <v>26.81823139759913</v>
+        <v>26.81823139759915</v>
       </c>
       <c r="E13" t="n">
-        <v>24.78728905627895</v>
+        <v>24.78728905627896</v>
       </c>
       <c r="F13" t="n">
-        <v>23.97168629288427</v>
+        <v>23.97168629288429</v>
       </c>
       <c r="G13" t="n">
-        <v>45.46608883664565</v>
+        <v>45.46608883664566</v>
       </c>
       <c r="H13" t="n">
-        <v>37.34701555510328</v>
+        <v>37.3470155551033</v>
       </c>
       <c r="I13" t="n">
-        <v>24.46908674955998</v>
+        <v>24.46908674955999</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.58497642579218</v>
+        <v>40.58497642579219</v>
       </c>
       <c r="S13" t="n">
-        <v>96.05436038967153</v>
+        <v>96.05436038967154</v>
       </c>
       <c r="T13" t="n">
         <v>105.1360623384526</v>
@@ -1594,7 +1594,7 @@
         <v>103.953024815389</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.56133875084799</v>
+        <v>96.56133875084801</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.36946263139146</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>137.2097001155552</v>
       </c>
       <c r="E14" t="n">
         <v>260.9307006383672</v>
       </c>
       <c r="F14" t="n">
-        <v>285.1065283636206</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>292.1409409833356</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>210.5646596909946</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.73949387512457</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.68024160140131</v>
       </c>
       <c r="T14" t="n">
         <v>98.47307515310011</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>129.2483093153382</v>
       </c>
       <c r="V14" t="n">
         <v>206.3458864055991</v>
@@ -1670,10 +1670,10 @@
         <v>228.3427818836344</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>248.6742640142492</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.4997366343156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43.18479049342461</v>
+        <v>82.0630339240916</v>
       </c>
       <c r="C15" t="n">
-        <v>48.83824881048078</v>
+        <v>48.83824881048076</v>
       </c>
       <c r="D15" t="n">
-        <v>32.26649219041151</v>
+        <v>23.92508845772534</v>
       </c>
       <c r="E15" t="n">
-        <v>33.84609859025362</v>
+        <v>33.8460985902536</v>
       </c>
       <c r="F15" t="n">
-        <v>21.31889696662908</v>
+        <v>21.31889696662907</v>
       </c>
       <c r="G15" t="n">
-        <v>135.7415135932285</v>
+        <v>13.5541784763083</v>
       </c>
       <c r="H15" t="n">
-        <v>107.7419192975101</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>77.20507959952957</v>
       </c>
       <c r="S15" t="n">
-        <v>41.5418877754285</v>
+        <v>163.7292228923487</v>
       </c>
       <c r="T15" t="n">
         <v>197.2470968808262</v>
@@ -1749,10 +1749,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>82.27429449155805</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.671151418586</v>
+        <v>81.4838163016658</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.8963563737636</v>
+        <v>57.89635637376358</v>
       </c>
       <c r="C16" t="n">
-        <v>45.14921781428212</v>
+        <v>45.14921781428211</v>
       </c>
       <c r="D16" t="n">
-        <v>26.81823139759915</v>
+        <v>26.81823139759913</v>
       </c>
       <c r="E16" t="n">
-        <v>24.78728905627896</v>
+        <v>24.78728905627895</v>
       </c>
       <c r="F16" t="n">
-        <v>23.97168629288429</v>
+        <v>23.97168629288427</v>
       </c>
       <c r="G16" t="n">
         <v>45.46608883664565</v>
       </c>
       <c r="H16" t="n">
-        <v>37.34701555510331</v>
+        <v>37.34701555510328</v>
       </c>
       <c r="I16" t="n">
-        <v>24.46908674955999</v>
+        <v>24.46908674955998</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.58497642579219</v>
+        <v>40.58497642579218</v>
       </c>
       <c r="S16" t="n">
-        <v>96.05436038967154</v>
+        <v>96.05436038967153</v>
       </c>
       <c r="T16" t="n">
         <v>105.1360623384526</v>
@@ -1831,7 +1831,7 @@
         <v>103.953024815389</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.56133875084801</v>
+        <v>96.56133875084799</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>159.8982899458451</v>
       </c>
       <c r="F17" t="n">
-        <v>184.074117671099</v>
+        <v>184.0741176710984</v>
       </c>
       <c r="G17" t="n">
         <v>191.1085302908134</v>
@@ -1932,16 +1932,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>93.84847146286036</v>
+        <v>135.7415135932285</v>
       </c>
       <c r="H18" t="n">
-        <v>107.7419192975101</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>76.80477854118097</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>77.20507959952955</v>
       </c>
       <c r="S18" t="n">
         <v>163.7292228923487</v>
@@ -1983,10 +1983,10 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>26.76960094055764</v>
+        <v>153.1735745742802</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>59.98510352193775</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>4.103651645930433</v>
       </c>
       <c r="U19" t="n">
-        <v>258.5386424004012</v>
+        <v>62.8196428556286</v>
       </c>
       <c r="V19" t="n">
         <v>29.71660525749675</v>
       </c>
       <c r="W19" t="n">
-        <v>62.87283107797313</v>
+        <v>198.6067271008079</v>
       </c>
       <c r="X19" t="n">
         <v>2.920614122866851</v>
@@ -2087,7 +2087,7 @@
         <v>133.384986945156</v>
       </c>
       <c r="E20" t="n">
-        <v>159.8982899458452</v>
+        <v>159.8982899458451</v>
       </c>
       <c r="F20" t="n">
         <v>184.0741176710984</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>161.6963268621159</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.7419192975101</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>76.80477854118097</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.20507959952954</v>
+        <v>77.20507959952955</v>
       </c>
       <c r="S21" t="n">
         <v>163.7292228923487</v>
@@ -2217,16 +2217,16 @@
         <v>224.6386443953714</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>8.688985230212722</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>145.7980343528964</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>59.98510352193775</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>195.7189995447726</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>4.103651645930433</v>
@@ -2296,7 +2296,7 @@
         <v>62.8196428556286</v>
       </c>
       <c r="V22" t="n">
-        <v>29.71660525749675</v>
+        <v>165.4505012803316</v>
       </c>
       <c r="W22" t="n">
         <v>62.87283107797313</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.20507959952955</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.7292228923487</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.2470968808262</v>
       </c>
       <c r="U24" t="n">
         <v>224.6386443953714</v>
       </c>
       <c r="V24" t="n">
-        <v>191.5671980924436</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>26.76960094055764</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>139.4437290611049</v>
       </c>
       <c r="Y24" t="n">
         <v>203.671151418586</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4.103651645930433</v>
+        <v>199.822651190703</v>
       </c>
       <c r="U25" t="n">
         <v>62.8196428556286</v>
@@ -2542,7 +2542,7 @@
         <v>2.920614122866851</v>
       </c>
       <c r="Y25" t="n">
-        <v>195.7189995447725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.6266565491209</v>
+        <v>241.6266565491208</v>
       </c>
       <c r="C26" t="n">
-        <v>224.8953422366685</v>
+        <v>224.8953422366684</v>
       </c>
       <c r="D26" t="n">
         <v>214.5149793123242</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0282823130133</v>
+        <v>241.0282823130132</v>
       </c>
       <c r="F26" t="n">
         <v>265.2041100382667</v>
@@ -2570,10 +2570,10 @@
         <v>272.2385226579817</v>
       </c>
       <c r="H26" t="n">
-        <v>190.6622413656407</v>
+        <v>190.6622413656406</v>
       </c>
       <c r="I26" t="n">
-        <v>42.83707554977059</v>
+        <v>42.83707554977056</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.77782327604734</v>
+        <v>51.77782327604732</v>
       </c>
       <c r="T26" t="n">
-        <v>78.57065682774615</v>
+        <v>78.57065682774612</v>
       </c>
       <c r="U26" t="n">
         <v>109.3458909899842</v>
       </c>
       <c r="V26" t="n">
-        <v>186.4434680802452</v>
+        <v>186.4434680802451</v>
       </c>
       <c r="W26" t="n">
         <v>208.4403635582804</v>
@@ -2634,7 +2634,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>39.11901648687281</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -2643,10 +2643,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>1.41647864127512</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7415135932285</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.20507959952954</v>
+        <v>77.20507959952955</v>
       </c>
       <c r="S27" t="n">
         <v>163.7292228923487</v>
@@ -2694,13 +2694,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>107.8995933077259</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>78.11282382710344</v>
+        <v>61.58139797631182</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.99393804840963</v>
+        <v>37.9939380484096</v>
       </c>
       <c r="C28" t="n">
-        <v>25.24679948892816</v>
+        <v>25.24679948892813</v>
       </c>
       <c r="D28" t="n">
-        <v>6.915813072245186</v>
+        <v>6.915813072245157</v>
       </c>
       <c r="E28" t="n">
-        <v>4.884870730925002</v>
+        <v>4.884870730924973</v>
       </c>
       <c r="F28" t="n">
-        <v>4.069267967530322</v>
+        <v>4.069267967530294</v>
       </c>
       <c r="G28" t="n">
-        <v>25.56367051129169</v>
+        <v>25.56367051129167</v>
       </c>
       <c r="H28" t="n">
-        <v>17.44459722974933</v>
+        <v>17.44459722974931</v>
       </c>
       <c r="I28" t="n">
-        <v>4.566668424206023</v>
+        <v>4.566668424205997</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.68255810043822</v>
+        <v>20.68255810043819</v>
       </c>
       <c r="S28" t="n">
-        <v>76.15194206431758</v>
+        <v>76.15194206431755</v>
       </c>
       <c r="T28" t="n">
-        <v>85.23364401309865</v>
+        <v>85.23364401309863</v>
       </c>
       <c r="U28" t="n">
         <v>143.9496352227968</v>
@@ -2773,13 +2773,13 @@
         <v>110.846597624665</v>
       </c>
       <c r="W28" t="n">
-        <v>144.0028234451414</v>
+        <v>144.0028234451413</v>
       </c>
       <c r="X28" t="n">
-        <v>84.05060649003508</v>
+        <v>84.05060649003505</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.65892042549405</v>
+        <v>76.65892042549402</v>
       </c>
     </row>
     <row r="29">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>117.0188776183918</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
@@ -2877,13 +2877,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>13.94368026489971</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>11.59966464302096</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7415135932285</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.20507959952954</v>
       </c>
       <c r="S30" t="n">
         <v>163.7292228923487</v>
@@ -2925,7 +2925,7 @@
         <v>197.2470968808262</v>
       </c>
       <c r="U30" t="n">
-        <v>82.54889095309724</v>
+        <v>224.6386443953714</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -2937,7 +2937,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>61.58139797631191</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="31">
@@ -2968,7 +2968,7 @@
         <v>17.44459722974939</v>
       </c>
       <c r="I31" t="n">
-        <v>4.56666842420608</v>
+        <v>4.566668424206078</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3114,19 +3114,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>13.94368026489974</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>95.1529840915963</v>
       </c>
       <c r="G33" t="n">
         <v>135.7415135932285</v>
       </c>
       <c r="H33" t="n">
-        <v>81.81640075188488</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>76.80477854118097</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.20507959952954</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>163.7292228923487</v>
+        <v>21.63946945007462</v>
       </c>
       <c r="T33" t="n">
-        <v>55.15734343855215</v>
+        <v>197.2470968808262</v>
       </c>
       <c r="U33" t="n">
         <v>224.6386443953714</v>
@@ -3168,13 +3168,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>107.899593307726</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>62.37187616620417</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>61.58139797631193</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="34">
@@ -3205,7 +3205,7 @@
         <v>17.44459722974942</v>
       </c>
       <c r="I34" t="n">
-        <v>4.566668424206108</v>
+        <v>4.566668424206107</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>82.59701797122806</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.20507959952954</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>163.7292228923487</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.2470968808262</v>
+        <v>84.54882821273313</v>
       </c>
       <c r="U36" t="n">
         <v>224.6386443953714</v>
       </c>
       <c r="V36" t="n">
-        <v>8.688985230212751</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
@@ -3411,7 +3411,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.6534239535659</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>28.06557559120656</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4.103651645930461</v>
+        <v>4.10365164593046</v>
       </c>
       <c r="U37" t="n">
         <v>62.81964285562863</v>
@@ -3487,7 +3487,7 @@
         <v>62.87283107797316</v>
       </c>
       <c r="X37" t="n">
-        <v>2.92061412286688</v>
+        <v>198.6396136676395</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
@@ -3591,10 +3591,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>108.2674281344087</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7415135932285</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3636,13 +3636,13 @@
         <v>197.2470968808262</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6386443953714</v>
+        <v>74.40225638616559</v>
       </c>
       <c r="V39" t="n">
         <v>8.688985230212751</v>
       </c>
       <c r="W39" t="n">
-        <v>26.76960094055767</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
         <v>204.4616296084783</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>4.103651645930461</v>
+        <v>199.822651190703</v>
       </c>
       <c r="U40" t="n">
         <v>62.81964285562863</v>
@@ -3721,7 +3721,7 @@
         <v>29.71660525749678</v>
       </c>
       <c r="W40" t="n">
-        <v>111.6172064495464</v>
+        <v>62.87283107797316</v>
       </c>
       <c r="X40" t="n">
         <v>2.92061412286688</v>
@@ -3740,7 +3740,7 @@
         <v>163.0559997213747</v>
       </c>
       <c r="C41" t="n">
-        <v>142.1133747904819</v>
+        <v>142.1133747904829</v>
       </c>
       <c r="D41" t="n">
         <v>135.9443224845781</v>
@@ -3819,19 +3819,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7415135932285</v>
+        <v>16.99826137082945</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>77.20507959952954</v>
       </c>
       <c r="S42" t="n">
-        <v>154.1724593411396</v>
+        <v>163.7292228923487</v>
       </c>
       <c r="T42" t="n">
         <v>197.2470968808262</v>
       </c>
       <c r="U42" t="n">
-        <v>3.978234125351042</v>
+        <v>224.6386443953714</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3885,7 +3885,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>59.98510352193775</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>189.5853090330147</v>
+        <v>6.662987185352511</v>
       </c>
       <c r="U43" t="n">
         <v>65.37897839505068</v>
@@ -3964,7 +3964,7 @@
         <v>5.479949662288931</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>122.9372183257245</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>163.0559997213746</v>
+        <v>163.0559997213747</v>
       </c>
       <c r="C44" t="n">
         <v>146.3246854089222</v>
@@ -3983,16 +3983,16 @@
         <v>135.944322484578</v>
       </c>
       <c r="E44" t="n">
-        <v>162.457625485267</v>
+        <v>162.4576254852671</v>
       </c>
       <c r="F44" t="n">
-        <v>186.6334532105204</v>
+        <v>186.6334532105205</v>
       </c>
       <c r="G44" t="n">
-        <v>189.4565552117965</v>
+        <v>193.6678658302354</v>
       </c>
       <c r="H44" t="n">
-        <v>112.0915845378944</v>
+        <v>107.880273919456</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.775234162238</v>
+        <v>30.77523416223803</v>
       </c>
       <c r="V44" t="n">
-        <v>107.8728112524989</v>
+        <v>107.872811252499</v>
       </c>
       <c r="W44" t="n">
         <v>129.8697067305342</v>
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>65.42645727213387</v>
       </c>
       <c r="E45" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7415135932285</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>107.7419192975101</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4107,22 +4107,22 @@
         <v>163.7292228923487</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.2470968808262</v>
       </c>
       <c r="U45" t="n">
-        <v>3.978234125350956</v>
+        <v>224.6386443953714</v>
       </c>
       <c r="V45" t="n">
-        <v>11.24832076963472</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>134.3891904237563</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>182.9223218476625</v>
       </c>
       <c r="T46" t="n">
-        <v>6.662987185352427</v>
+        <v>6.662987185352454</v>
       </c>
       <c r="U46" t="n">
-        <v>65.37897839505059</v>
+        <v>65.37897839505062</v>
       </c>
       <c r="V46" t="n">
-        <v>32.27594079691875</v>
+        <v>32.27594079691877</v>
       </c>
       <c r="W46" t="n">
-        <v>65.43216661739513</v>
+        <v>65.43216661739515</v>
       </c>
       <c r="X46" t="n">
-        <v>5.479949662288846</v>
+        <v>5.479949662288874</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.838630356978751</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>887.2358761430341</v>
+        <v>712.3271959261057</v>
       </c>
       <c r="C11" t="n">
-        <v>639.9654109288701</v>
+        <v>712.3271959261057</v>
       </c>
       <c r="D11" t="n">
-        <v>639.9654109288701</v>
+        <v>712.3271959261057</v>
       </c>
       <c r="E11" t="n">
-        <v>392.5654590962258</v>
+        <v>448.7608316449266</v>
       </c>
       <c r="F11" t="n">
-        <v>392.5654590962258</v>
+        <v>160.7744393584411</v>
       </c>
       <c r="G11" t="n">
-        <v>97.4735995170989</v>
+        <v>160.7744393584411</v>
       </c>
       <c r="H11" t="n">
-        <v>97.4735995170989</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="I11" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J11" t="n">
-        <v>77.68595933140776</v>
+        <v>77.68595933140716</v>
       </c>
       <c r="K11" t="n">
-        <v>265.2860470056568</v>
+        <v>265.2860470056563</v>
       </c>
       <c r="L11" t="n">
-        <v>549.9896226232095</v>
+        <v>549.989622623209</v>
       </c>
       <c r="M11" t="n">
-        <v>881.989500861923</v>
+        <v>881.9895008619228</v>
       </c>
       <c r="N11" t="n">
         <v>1203.844309233456</v>
@@ -5075,16 +5075,16 @@
         <v>1402.592784111442</v>
       </c>
       <c r="V11" t="n">
-        <v>1402.592784111442</v>
+        <v>1194.162595822958</v>
       </c>
       <c r="W11" t="n">
-        <v>1402.592784111442</v>
+        <v>963.513321193024</v>
       </c>
       <c r="X11" t="n">
-        <v>1151.406658844524</v>
+        <v>712.3271959261057</v>
       </c>
       <c r="Y11" t="n">
-        <v>1151.406658844524</v>
+        <v>712.3271959261057</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>363.422806855446</v>
+        <v>423.8551022040817</v>
       </c>
       <c r="C12" t="n">
-        <v>314.091242400415</v>
+        <v>251.1019871258989</v>
       </c>
       <c r="D12" t="n">
-        <v>289.9244863825106</v>
+        <v>226.9352311079945</v>
       </c>
       <c r="E12" t="n">
-        <v>255.736508008517</v>
+        <v>69.32570211084924</v>
       </c>
       <c r="F12" t="n">
-        <v>234.2022686482856</v>
+        <v>47.79146275061783</v>
       </c>
       <c r="G12" t="n">
-        <v>220.5111792782772</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="H12" t="n">
-        <v>111.6809577656407</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="I12" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J12" t="n">
-        <v>67.84169496362989</v>
+        <v>67.84169496362992</v>
       </c>
       <c r="K12" t="n">
-        <v>252.1166010199253</v>
+        <v>252.1166010199254</v>
       </c>
       <c r="L12" t="n">
-        <v>560.7465601116828</v>
+        <v>501.4685884878116</v>
       </c>
       <c r="M12" t="n">
-        <v>973.7033593117616</v>
+        <v>914.4253876878904</v>
       </c>
       <c r="N12" t="n">
-        <v>1002.185327277839</v>
+        <v>1336.417508272932</v>
       </c>
       <c r="O12" t="n">
         <v>1336.417508272932</v>
@@ -5145,25 +5145,25 @@
         <v>1705.018669030472</v>
       </c>
       <c r="S12" t="n">
-        <v>1663.057166227009</v>
+        <v>1539.635615603857</v>
       </c>
       <c r="T12" t="n">
         <v>1463.817674428194</v>
       </c>
       <c r="U12" t="n">
-        <v>1236.909952816708</v>
+        <v>1360.33150343986</v>
       </c>
       <c r="V12" t="n">
-        <v>1002.658709342309</v>
+        <v>1249.501810588612</v>
       </c>
       <c r="W12" t="n">
-        <v>819.2991417246268</v>
+        <v>996.9873189219455</v>
       </c>
       <c r="X12" t="n">
-        <v>612.7722431302043</v>
+        <v>790.460420327523</v>
       </c>
       <c r="Y12" t="n">
-        <v>407.0438073538547</v>
+        <v>584.7319845511735</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.4121064132894</v>
+        <v>264.4121064132896</v>
       </c>
       <c r="C13" t="n">
-        <v>218.8068358938125</v>
+        <v>218.8068358938127</v>
       </c>
       <c r="D13" t="n">
-        <v>191.717713269975</v>
+        <v>191.7177132699751</v>
       </c>
       <c r="E13" t="n">
-        <v>166.6800475565619</v>
+        <v>166.680047556562</v>
       </c>
       <c r="F13" t="n">
-        <v>142.4662230182953</v>
+        <v>142.4662230182951</v>
       </c>
       <c r="G13" t="n">
-        <v>96.54088075905723</v>
+        <v>96.54088075905702</v>
       </c>
       <c r="H13" t="n">
-        <v>58.81662262258922</v>
+        <v>58.81662262258921</v>
       </c>
       <c r="I13" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J13" t="n">
         <v>83.64527387097706</v>
       </c>
       <c r="K13" t="n">
-        <v>217.1477656179561</v>
+        <v>217.1477656179562</v>
       </c>
       <c r="L13" t="n">
-        <v>409.9599245477656</v>
+        <v>409.9599245477657</v>
       </c>
       <c r="M13" t="n">
-        <v>617.2705544451094</v>
+        <v>617.2705544451095</v>
       </c>
       <c r="N13" t="n">
-        <v>827.6693511300646</v>
+        <v>827.6693511300648</v>
       </c>
       <c r="O13" t="n">
-        <v>1015.904376342989</v>
+        <v>1015.90437634299</v>
       </c>
       <c r="P13" t="n">
-        <v>1171.208089419693</v>
+        <v>1171.208089419694</v>
       </c>
       <c r="Q13" t="n">
         <v>1232.788298698726</v>
       </c>
       <c r="R13" t="n">
-        <v>1191.793373016107</v>
+        <v>1191.793373016108</v>
       </c>
       <c r="S13" t="n">
         <v>1094.768766561894</v>
       </c>
       <c r="T13" t="n">
-        <v>988.5707237957799</v>
+        <v>988.5707237957802</v>
       </c>
       <c r="U13" t="n">
-        <v>823.0635989996681</v>
+        <v>823.0635989996683</v>
       </c>
       <c r="V13" t="n">
-        <v>690.9938859188409</v>
+        <v>690.9938859188411</v>
       </c>
       <c r="W13" t="n">
-        <v>525.4330356456132</v>
+        <v>525.4330356456135</v>
       </c>
       <c r="X13" t="n">
-        <v>420.4299802765334</v>
+        <v>420.4299802765336</v>
       </c>
       <c r="Y13" t="n">
-        <v>322.893274467596</v>
+        <v>322.8932744675963</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>880.7449895274009</v>
+        <v>712.3271959261059</v>
       </c>
       <c r="C14" t="n">
-        <v>880.7449895274009</v>
+        <v>712.3271959261059</v>
       </c>
       <c r="D14" t="n">
-        <v>880.7449895274009</v>
+        <v>573.731539243727</v>
       </c>
       <c r="E14" t="n">
-        <v>617.1786252462218</v>
+        <v>310.165174962548</v>
       </c>
       <c r="F14" t="n">
-        <v>329.1922329597363</v>
+        <v>310.165174962548</v>
       </c>
       <c r="G14" t="n">
-        <v>34.10037338060944</v>
+        <v>310.165174962548</v>
       </c>
       <c r="H14" t="n">
-        <v>34.10037338060944</v>
+        <v>97.4735995170989</v>
       </c>
       <c r="I14" t="n">
         <v>34.10037338060944</v>
       </c>
       <c r="J14" t="n">
-        <v>77.68595933140728</v>
+        <v>77.68595933140712</v>
       </c>
       <c r="K14" t="n">
-        <v>265.2860470056564</v>
+        <v>265.2860470056568</v>
       </c>
       <c r="L14" t="n">
-        <v>549.9896226232092</v>
+        <v>549.9896226232095</v>
       </c>
       <c r="M14" t="n">
-        <v>881.9895008619229</v>
+        <v>881.989500861923</v>
       </c>
       <c r="N14" t="n">
         <v>1203.844309233456</v>
@@ -5303,25 +5303,25 @@
         <v>1705.018669030472</v>
       </c>
       <c r="S14" t="n">
-        <v>1705.018669030472</v>
+        <v>1632.614384584612</v>
       </c>
       <c r="T14" t="n">
-        <v>1605.550916350573</v>
+        <v>1533.146631904713</v>
       </c>
       <c r="U14" t="n">
-        <v>1605.550916350573</v>
+        <v>1402.592784111442</v>
       </c>
       <c r="V14" t="n">
-        <v>1397.120728062089</v>
+        <v>1194.162595822958</v>
       </c>
       <c r="W14" t="n">
-        <v>1166.471453432155</v>
+        <v>963.5133211930242</v>
       </c>
       <c r="X14" t="n">
-        <v>1166.471453432155</v>
+        <v>712.3271959261059</v>
       </c>
       <c r="Y14" t="n">
-        <v>899.3000022863819</v>
+        <v>712.3271959261059</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>417.6894334296131</v>
+        <v>177.0120009577782</v>
       </c>
       <c r="C15" t="n">
-        <v>368.357868974582</v>
+        <v>127.6804365027471</v>
       </c>
       <c r="D15" t="n">
-        <v>335.765452620631</v>
+        <v>103.5136804848428</v>
       </c>
       <c r="E15" t="n">
-        <v>301.5774742466375</v>
+        <v>69.32570211084921</v>
       </c>
       <c r="F15" t="n">
-        <v>280.043234886406</v>
+        <v>47.79146275061782</v>
       </c>
       <c r="G15" t="n">
-        <v>142.9305948932459</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="H15" t="n">
         <v>34.10037338060944</v>
@@ -5355,19 +5355,19 @@
         <v>34.10037338060944</v>
       </c>
       <c r="J15" t="n">
-        <v>67.84169496362993</v>
+        <v>67.84169496362989</v>
       </c>
       <c r="K15" t="n">
-        <v>252.1166010199254</v>
+        <v>67.84169496362989</v>
       </c>
       <c r="L15" t="n">
-        <v>560.746560111683</v>
+        <v>376.4716540553874</v>
       </c>
       <c r="M15" t="n">
-        <v>973.7033593117619</v>
+        <v>789.4284532554661</v>
       </c>
       <c r="N15" t="n">
-        <v>1395.695479896804</v>
+        <v>1211.420573840508</v>
       </c>
       <c r="O15" t="n">
         <v>1453.194418431013</v>
@@ -5379,28 +5379,28 @@
         <v>1705.018669030472</v>
       </c>
       <c r="R15" t="n">
-        <v>1705.018669030472</v>
+        <v>1627.033740142058</v>
       </c>
       <c r="S15" t="n">
-        <v>1663.057166227009</v>
+        <v>1461.650686715443</v>
       </c>
       <c r="T15" t="n">
-        <v>1463.817674428194</v>
+        <v>1262.411194916629</v>
       </c>
       <c r="U15" t="n">
-        <v>1236.909952816708</v>
+        <v>1035.503473305143</v>
       </c>
       <c r="V15" t="n">
-        <v>1002.658709342309</v>
+        <v>801.2522298307435</v>
       </c>
       <c r="W15" t="n">
-        <v>750.1442176756422</v>
+        <v>548.7377381640769</v>
       </c>
       <c r="X15" t="n">
-        <v>667.0388697043713</v>
+        <v>342.2108395696544</v>
       </c>
       <c r="Y15" t="n">
-        <v>461.3104339280218</v>
+        <v>259.9039544164566</v>
       </c>
     </row>
     <row r="16">
@@ -5416,31 +5416,31 @@
         <v>218.8068358938128</v>
       </c>
       <c r="D16" t="n">
-        <v>191.7177132699752</v>
+        <v>191.7177132699753</v>
       </c>
       <c r="E16" t="n">
-        <v>166.6800475565621</v>
+        <v>166.6800475565622</v>
       </c>
       <c r="F16" t="n">
-        <v>142.4662230182952</v>
+        <v>142.4662230182953</v>
       </c>
       <c r="G16" t="n">
-        <v>96.54088075905725</v>
+        <v>96.54088075905719</v>
       </c>
       <c r="H16" t="n">
-        <v>58.81662262258924</v>
+        <v>58.81662262258922</v>
       </c>
       <c r="I16" t="n">
         <v>34.10037338060944</v>
       </c>
       <c r="J16" t="n">
-        <v>83.64527387097705</v>
+        <v>83.64527387097712</v>
       </c>
       <c r="K16" t="n">
         <v>217.1477656179562</v>
       </c>
       <c r="L16" t="n">
-        <v>409.9599245477656</v>
+        <v>409.9599245477657</v>
       </c>
       <c r="M16" t="n">
         <v>617.2705544451096</v>
@@ -5452,7 +5452,7 @@
         <v>1015.904376342989</v>
       </c>
       <c r="P16" t="n">
-        <v>1171.208089419693</v>
+        <v>1171.208089419694</v>
       </c>
       <c r="Q16" t="n">
         <v>1232.788298698726</v>
@@ -5467,13 +5467,13 @@
         <v>988.5707237957802</v>
       </c>
       <c r="U16" t="n">
-        <v>823.0635989996682</v>
+        <v>823.0635989996684</v>
       </c>
       <c r="V16" t="n">
-        <v>690.993885918841</v>
+        <v>690.9938859188412</v>
       </c>
       <c r="W16" t="n">
-        <v>525.4330356456134</v>
+        <v>525.4330356456136</v>
       </c>
       <c r="X16" t="n">
         <v>420.4299802765337</v>
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>965.1746397653426</v>
+        <v>965.1746397653424</v>
       </c>
       <c r="C17" t="n">
-        <v>819.9571146446353</v>
+        <v>819.9571146446351</v>
       </c>
       <c r="D17" t="n">
-        <v>685.2248045990232</v>
+        <v>685.2248045990229</v>
       </c>
       <c r="E17" t="n">
-        <v>523.7113804113009</v>
+        <v>523.7113804113006</v>
       </c>
       <c r="F17" t="n">
         <v>337.7779282182719</v>
@@ -5513,16 +5513,16 @@
         <v>34.10037338060944</v>
       </c>
       <c r="J17" t="n">
-        <v>77.68595933140719</v>
+        <v>77.68595933140705</v>
       </c>
       <c r="K17" t="n">
-        <v>265.2860470056565</v>
+        <v>265.2860470056563</v>
       </c>
       <c r="L17" t="n">
-        <v>549.9896226232092</v>
+        <v>549.989622623209</v>
       </c>
       <c r="M17" t="n">
-        <v>881.989500861923</v>
+        <v>881.9895008619227</v>
       </c>
       <c r="N17" t="n">
         <v>1203.844309233456</v>
@@ -5552,13 +5552,13 @@
         <v>1570.14051313563</v>
       </c>
       <c r="W17" t="n">
-        <v>1441.544178599154</v>
+        <v>1441.544178599153</v>
       </c>
       <c r="X17" t="n">
         <v>1292.410993425692</v>
       </c>
       <c r="Y17" t="n">
-        <v>1127.292482373376</v>
+        <v>1127.292482373375</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>645.6702591746764</v>
+        <v>646.5314474324807</v>
       </c>
       <c r="C18" t="n">
-        <v>472.9171440964936</v>
+        <v>473.778332354298</v>
       </c>
       <c r="D18" t="n">
-        <v>472.9171440964936</v>
+        <v>473.778332354298</v>
       </c>
       <c r="E18" t="n">
-        <v>315.3076150993483</v>
+        <v>316.1688033571527</v>
       </c>
       <c r="F18" t="n">
-        <v>315.3076150993483</v>
+        <v>171.2130133737696</v>
       </c>
       <c r="G18" t="n">
-        <v>220.5111792782772</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="H18" t="n">
-        <v>111.6809577656407</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="I18" t="n">
         <v>34.10037338060944</v>
       </c>
       <c r="J18" t="n">
-        <v>67.84169496362993</v>
+        <v>67.84169496362992</v>
       </c>
       <c r="K18" t="n">
-        <v>252.1166010199254</v>
+        <v>110.43069900042</v>
       </c>
       <c r="L18" t="n">
-        <v>560.746560111683</v>
+        <v>419.0606580921776</v>
       </c>
       <c r="M18" t="n">
-        <v>973.7033593117619</v>
+        <v>832.0174572922564</v>
       </c>
       <c r="N18" t="n">
-        <v>1002.185327277839</v>
+        <v>1254.009577877298</v>
       </c>
       <c r="O18" t="n">
-        <v>1336.417508272932</v>
+        <v>1588.241758872392</v>
       </c>
       <c r="P18" t="n">
         <v>1588.241758872392</v>
@@ -5616,28 +5616,28 @@
         <v>1705.018669030472</v>
       </c>
       <c r="R18" t="n">
-        <v>1705.018669030472</v>
+        <v>1627.033740142058</v>
       </c>
       <c r="S18" t="n">
-        <v>1539.635615603857</v>
+        <v>1461.650686715443</v>
       </c>
       <c r="T18" t="n">
-        <v>1340.396123805043</v>
+        <v>1262.411194916629</v>
       </c>
       <c r="U18" t="n">
-        <v>1113.488402193556</v>
+        <v>1035.503473305143</v>
       </c>
       <c r="V18" t="n">
-        <v>879.2371587191572</v>
+        <v>801.2522298307435</v>
       </c>
       <c r="W18" t="n">
-        <v>852.1971577690989</v>
+        <v>646.5314474324807</v>
       </c>
       <c r="X18" t="n">
-        <v>645.6702591746764</v>
+        <v>646.5314474324807</v>
       </c>
       <c r="Y18" t="n">
-        <v>645.6702591746764</v>
+        <v>646.5314474324807</v>
       </c>
     </row>
     <row r="19">
@@ -5692,22 +5692,22 @@
         <v>395.8704183348199</v>
       </c>
       <c r="Q19" t="n">
-        <v>395.8704183348199</v>
+        <v>335.2794046762969</v>
       </c>
       <c r="R19" t="n">
-        <v>395.8704183348199</v>
+        <v>335.2794046762969</v>
       </c>
       <c r="S19" t="n">
-        <v>395.8704183348199</v>
+        <v>335.2794046762969</v>
       </c>
       <c r="T19" t="n">
-        <v>391.7253156621629</v>
+        <v>331.1343020036399</v>
       </c>
       <c r="U19" t="n">
-        <v>130.5751718233738</v>
+        <v>267.6801173009848</v>
       </c>
       <c r="V19" t="n">
-        <v>100.5583988360034</v>
+        <v>237.6633443136143</v>
       </c>
       <c r="W19" t="n">
         <v>37.05048865623252</v>
@@ -5735,7 +5735,7 @@
         <v>685.2248045990231</v>
       </c>
       <c r="E20" t="n">
-        <v>523.7113804113006</v>
+        <v>523.7113804113008</v>
       </c>
       <c r="F20" t="n">
         <v>337.7779282182719</v>
@@ -5744,13 +5744,13 @@
         <v>144.7390087326018</v>
       </c>
       <c r="H20" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="I20" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J20" t="n">
-        <v>77.68595933140719</v>
+        <v>77.68595933140716</v>
       </c>
       <c r="K20" t="n">
         <v>265.2860470056563</v>
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>541.4503313684688</v>
+        <v>499.3975850832315</v>
       </c>
       <c r="C21" t="n">
-        <v>378.1207082754225</v>
+        <v>326.6444700050487</v>
       </c>
       <c r="D21" t="n">
-        <v>378.1207082754225</v>
+        <v>179.0561633639926</v>
       </c>
       <c r="E21" t="n">
-        <v>220.5111792782772</v>
+        <v>179.0561633639926</v>
       </c>
       <c r="F21" t="n">
-        <v>220.5111792782772</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="G21" t="n">
-        <v>220.5111792782772</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="H21" t="n">
-        <v>111.6809577656407</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="I21" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J21" t="n">
-        <v>67.84169496362993</v>
+        <v>67.84169496362992</v>
       </c>
       <c r="K21" t="n">
         <v>252.1166010199254</v>
       </c>
       <c r="L21" t="n">
-        <v>560.746560111683</v>
+        <v>560.7465601116829</v>
       </c>
       <c r="M21" t="n">
-        <v>973.7033593117619</v>
+        <v>973.7033593117617</v>
       </c>
       <c r="N21" t="n">
-        <v>1002.185327277839</v>
+        <v>1395.695479896803</v>
       </c>
       <c r="O21" t="n">
-        <v>1336.417508272932</v>
+        <v>1395.695479896803</v>
       </c>
       <c r="P21" t="n">
         <v>1588.241758872392</v>
@@ -5865,16 +5865,16 @@
         <v>1234.742965103957</v>
       </c>
       <c r="V21" t="n">
-        <v>1000.491721629558</v>
+        <v>1225.966212346166</v>
       </c>
       <c r="W21" t="n">
-        <v>747.9772299628913</v>
+        <v>1078.695470575564</v>
       </c>
       <c r="X21" t="n">
-        <v>541.4503313684688</v>
+        <v>872.1685719811416</v>
       </c>
       <c r="Y21" t="n">
-        <v>541.4503313684688</v>
+        <v>666.440136204792</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="C22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="D22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="E22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="F22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="G22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="H22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="I22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="K22" t="n">
-        <v>46.63740336183754</v>
+        <v>46.63740336183753</v>
       </c>
       <c r="L22" t="n">
         <v>118.4841005258961</v>
       </c>
       <c r="M22" t="n">
-        <v>204.829268657489</v>
+        <v>204.8292686574889</v>
       </c>
       <c r="N22" t="n">
         <v>294.2626035766932</v>
@@ -5929,19 +5929,19 @@
         <v>395.8704183348199</v>
       </c>
       <c r="Q22" t="n">
-        <v>395.8704183348199</v>
+        <v>335.2794046762969</v>
       </c>
       <c r="R22" t="n">
-        <v>395.8704183348199</v>
+        <v>335.2794046762969</v>
       </c>
       <c r="S22" t="n">
-        <v>198.174459198686</v>
+        <v>335.2794046762969</v>
       </c>
       <c r="T22" t="n">
-        <v>194.0293565260289</v>
+        <v>331.1343020036399</v>
       </c>
       <c r="U22" t="n">
-        <v>130.5751718233738</v>
+        <v>267.6801173009848</v>
       </c>
       <c r="V22" t="n">
         <v>100.5583988360034</v>
@@ -5950,10 +5950,10 @@
         <v>37.05048865623252</v>
       </c>
       <c r="X22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>965.1746397653427</v>
+        <v>965.1746397653424</v>
       </c>
       <c r="C23" t="n">
         <v>819.9571146446353</v>
       </c>
       <c r="D23" t="n">
-        <v>685.2248045990234</v>
+        <v>685.2248045990232</v>
       </c>
       <c r="E23" t="n">
-        <v>523.711380411301</v>
+        <v>523.7113804113009</v>
       </c>
       <c r="F23" t="n">
-        <v>337.7779282182722</v>
+        <v>337.7779282182721</v>
       </c>
       <c r="G23" t="n">
         <v>144.7390087326018</v>
@@ -5987,16 +5987,16 @@
         <v>34.10037338060944</v>
       </c>
       <c r="J23" t="n">
-        <v>77.68595933140719</v>
+        <v>77.68595933140716</v>
       </c>
       <c r="K23" t="n">
-        <v>265.2860470056563</v>
+        <v>265.2860470056565</v>
       </c>
       <c r="L23" t="n">
-        <v>549.989622623209</v>
+        <v>549.9896226232092</v>
       </c>
       <c r="M23" t="n">
-        <v>881.9895008619228</v>
+        <v>881.989500861923</v>
       </c>
       <c r="N23" t="n">
         <v>1203.844309233456</v>
@@ -6023,16 +6023,16 @@
         <v>1676.517761330658</v>
       </c>
       <c r="V23" t="n">
-        <v>1570.140513135631</v>
+        <v>1570.14051313563</v>
       </c>
       <c r="W23" t="n">
-        <v>1441.544178599154</v>
+        <v>1441.544178599153</v>
       </c>
       <c r="X23" t="n">
         <v>1292.410993425692</v>
       </c>
       <c r="Y23" t="n">
-        <v>1127.292482373376</v>
+        <v>1127.292482373375</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>452.7963499645888</v>
+        <v>427.6315415274622</v>
       </c>
       <c r="C24" t="n">
-        <v>280.043234886406</v>
+        <v>427.6315415274622</v>
       </c>
       <c r="D24" t="n">
         <v>280.043234886406</v>
@@ -6069,49 +6069,49 @@
         <v>34.10037338060944</v>
       </c>
       <c r="K24" t="n">
-        <v>167.2364074927181</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="L24" t="n">
-        <v>167.2364074927181</v>
+        <v>342.730332472367</v>
       </c>
       <c r="M24" t="n">
-        <v>580.1932066927969</v>
+        <v>755.6871316724457</v>
       </c>
       <c r="N24" t="n">
-        <v>1002.185327277839</v>
+        <v>1118.962237435919</v>
       </c>
       <c r="O24" t="n">
-        <v>1336.417508272932</v>
+        <v>1453.194418431013</v>
       </c>
       <c r="P24" t="n">
-        <v>1588.241758872392</v>
+        <v>1705.018669030472</v>
       </c>
       <c r="Q24" t="n">
         <v>1705.018669030472</v>
       </c>
       <c r="R24" t="n">
-        <v>1705.018669030472</v>
+        <v>1627.033740142058</v>
       </c>
       <c r="S24" t="n">
-        <v>1705.018669030472</v>
+        <v>1461.650686715443</v>
       </c>
       <c r="T24" t="n">
-        <v>1705.018669030472</v>
+        <v>1262.411194916629</v>
       </c>
       <c r="U24" t="n">
-        <v>1478.110947418986</v>
+        <v>1035.503473305143</v>
       </c>
       <c r="V24" t="n">
-        <v>1284.608727123588</v>
+        <v>801.2522298307435</v>
       </c>
       <c r="W24" t="n">
-        <v>1032.094235456921</v>
+        <v>774.2122288806853</v>
       </c>
       <c r="X24" t="n">
-        <v>825.5673368624988</v>
+        <v>633.3599773038117</v>
       </c>
       <c r="Y24" t="n">
-        <v>619.8389010861492</v>
+        <v>427.6315415274622</v>
       </c>
     </row>
     <row r="25">
@@ -6175,19 +6175,19 @@
         <v>395.8704183348199</v>
       </c>
       <c r="T25" t="n">
-        <v>391.7253156621629</v>
+        <v>194.0293565260289</v>
       </c>
       <c r="U25" t="n">
-        <v>328.2711309595077</v>
+        <v>130.5751718233738</v>
       </c>
       <c r="V25" t="n">
-        <v>298.2543579721373</v>
+        <v>100.5583988360034</v>
       </c>
       <c r="W25" t="n">
-        <v>234.7464477923664</v>
+        <v>37.05048865623252</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7963325167433</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="Y25" t="n">
         <v>34.10037338060944</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1523.78069876237</v>
+        <v>1523.780698762371</v>
       </c>
       <c r="C26" t="n">
         <v>1296.613686402099</v>
@@ -6209,13 +6209,13 @@
         <v>1079.931889116923</v>
       </c>
       <c r="E26" t="n">
-        <v>836.4689776896366</v>
+        <v>836.4689776896371</v>
       </c>
       <c r="F26" t="n">
-        <v>568.586038257044</v>
+        <v>568.5860382570445</v>
       </c>
       <c r="G26" t="n">
-        <v>293.59763153181</v>
+        <v>293.5976315318105</v>
       </c>
       <c r="H26" t="n">
         <v>101.0095089402537</v>
@@ -6224,16 +6224,16 @@
         <v>57.73973565765712</v>
       </c>
       <c r="J26" t="n">
-        <v>241.9941775163063</v>
+        <v>241.9941775163053</v>
       </c>
       <c r="K26" t="n">
-        <v>570.2631210984068</v>
+        <v>570.2631210984059</v>
       </c>
       <c r="L26" t="n">
-        <v>995.635552623811</v>
+        <v>995.6355526238101</v>
       </c>
       <c r="M26" t="n">
-        <v>1468.304286770376</v>
+        <v>1468.304286770375</v>
       </c>
       <c r="N26" t="n">
         <v>1930.82795104976</v>
@@ -6269,7 +6269,7 @@
         <v>2014.916026901848</v>
       </c>
       <c r="Y26" t="n">
-        <v>1767.848028609967</v>
+        <v>1767.848028609968</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>674.23411287354</v>
+        <v>547.40751934679</v>
       </c>
       <c r="C27" t="n">
-        <v>501.4809977953572</v>
+        <v>507.8933612792417</v>
       </c>
       <c r="D27" t="n">
-        <v>353.892691154301</v>
+        <v>360.3050546381855</v>
       </c>
       <c r="E27" t="n">
-        <v>196.2831621571557</v>
+        <v>202.6955256410403</v>
       </c>
       <c r="F27" t="n">
-        <v>194.8523756508172</v>
+        <v>57.73973565765712</v>
       </c>
       <c r="G27" t="n">
         <v>57.73973565765712</v>
@@ -6309,10 +6309,10 @@
         <v>275.7559632969731</v>
       </c>
       <c r="L27" t="n">
-        <v>584.3859223887307</v>
+        <v>584.3859223887306</v>
       </c>
       <c r="M27" t="n">
-        <v>997.3427215888096</v>
+        <v>997.3427215888094</v>
       </c>
       <c r="N27" t="n">
         <v>1436.62799047584</v>
@@ -6342,13 +6342,13 @@
         <v>1235.694893028744</v>
       </c>
       <c r="W27" t="n">
-        <v>1126.705404839122</v>
+        <v>983.1804013620778</v>
       </c>
       <c r="X27" t="n">
-        <v>920.1785062446999</v>
+        <v>776.6535027676553</v>
       </c>
       <c r="Y27" t="n">
-        <v>841.2766639951004</v>
+        <v>714.4500704683504</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.3272987130871</v>
+        <v>147.3272987130869</v>
       </c>
       <c r="C28" t="n">
-        <v>121.8254810475031</v>
+        <v>121.825481047503</v>
       </c>
       <c r="D28" t="n">
-        <v>114.8398112775585</v>
+        <v>114.8398112775584</v>
       </c>
       <c r="E28" t="n">
-        <v>109.9055984180383</v>
+        <v>109.9055984180382</v>
       </c>
       <c r="F28" t="n">
-        <v>105.7952267336643</v>
+        <v>105.7952267336642</v>
       </c>
       <c r="G28" t="n">
-        <v>79.9733373283191</v>
+        <v>79.97333732831905</v>
       </c>
       <c r="H28" t="n">
-        <v>62.35253204574401</v>
+        <v>62.35253204574398</v>
       </c>
       <c r="I28" t="n">
         <v>57.73973565765712</v>
@@ -6385,49 +6385,49 @@
         <v>126.9880302901252</v>
       </c>
       <c r="K28" t="n">
-        <v>280.1939161792047</v>
+        <v>139.5250602713533</v>
       </c>
       <c r="L28" t="n">
-        <v>352.0406133432633</v>
+        <v>211.3717574354118</v>
       </c>
       <c r="M28" t="n">
-        <v>438.3857814748562</v>
+        <v>297.7169255670048</v>
       </c>
       <c r="N28" t="n">
-        <v>611.2121412263763</v>
+        <v>527.8191163940605</v>
       </c>
       <c r="O28" t="n">
-        <v>819.1505605814014</v>
+        <v>678.4817046735495</v>
       </c>
       <c r="P28" t="n">
-        <v>853.4888118923544</v>
+        <v>853.4888118923541</v>
       </c>
       <c r="Q28" t="n">
-        <v>934.7724153134875</v>
+        <v>934.7724153134872</v>
       </c>
       <c r="R28" t="n">
-        <v>913.880942484762</v>
+        <v>913.8809424847617</v>
       </c>
       <c r="S28" t="n">
-        <v>836.9597888844413</v>
+        <v>836.959788884441</v>
       </c>
       <c r="T28" t="n">
-        <v>750.8651989722205</v>
+        <v>750.8651989722201</v>
       </c>
       <c r="U28" t="n">
-        <v>605.4615270300014</v>
+        <v>605.4615270300011</v>
       </c>
       <c r="V28" t="n">
-        <v>493.4952668030671</v>
+        <v>493.4952668030668</v>
       </c>
       <c r="W28" t="n">
-        <v>348.0378693837324</v>
+        <v>348.0378693837321</v>
       </c>
       <c r="X28" t="n">
-        <v>263.1382668685454</v>
+        <v>263.1382668685451</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.7050139135009</v>
+        <v>185.7050139135007</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>1523.78069876237</v>
       </c>
       <c r="C29" t="n">
-        <v>1296.613686402099</v>
+        <v>1296.613686402098</v>
       </c>
       <c r="D29" t="n">
-        <v>1079.931889116923</v>
+        <v>1079.931889116922</v>
       </c>
       <c r="E29" t="n">
-        <v>836.4689776896369</v>
+        <v>836.4689776896362</v>
       </c>
       <c r="F29" t="n">
-        <v>568.5860382570442</v>
+        <v>568.5860382570435</v>
       </c>
       <c r="G29" t="n">
-        <v>293.5976315318101</v>
+        <v>293.5976315318094</v>
       </c>
       <c r="H29" t="n">
         <v>101.0095089402537</v>
@@ -6461,16 +6461,16 @@
         <v>57.73973565765712</v>
       </c>
       <c r="J29" t="n">
-        <v>241.9941775163056</v>
+        <v>241.9941775163065</v>
       </c>
       <c r="K29" t="n">
-        <v>570.2631210984061</v>
+        <v>570.2631210984071</v>
       </c>
       <c r="L29" t="n">
-        <v>995.6355526238103</v>
+        <v>995.6355526238112</v>
       </c>
       <c r="M29" t="n">
-        <v>1468.304286770375</v>
+        <v>1468.304286770376</v>
       </c>
       <c r="N29" t="n">
         <v>1930.82795104976</v>
@@ -6494,16 +6494,16 @@
         <v>2755.321651464883</v>
       </c>
       <c r="U29" t="n">
-        <v>2644.871256525505</v>
+        <v>2644.871256525504</v>
       </c>
       <c r="V29" t="n">
-        <v>2456.544521090914</v>
+        <v>2456.544521090913</v>
       </c>
       <c r="W29" t="n">
-        <v>2245.998699314873</v>
+        <v>2245.998699314872</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.916026901848</v>
+        <v>2014.916026901846</v>
       </c>
       <c r="Y29" t="n">
         <v>1767.848028609967</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>817.7591163505847</v>
+        <v>403.8825158697452</v>
       </c>
       <c r="C30" t="n">
-        <v>645.0060012724018</v>
+        <v>231.1294007915624</v>
       </c>
       <c r="D30" t="n">
-        <v>497.4176946313456</v>
+        <v>83.5410941505063</v>
       </c>
       <c r="E30" t="n">
-        <v>339.8081656342003</v>
+        <v>69.45656863040557</v>
       </c>
       <c r="F30" t="n">
-        <v>194.8523756508172</v>
+        <v>57.73973565765712</v>
       </c>
       <c r="G30" t="n">
         <v>57.73973565765712</v>
@@ -6564,28 +6564,28 @@
         <v>2139.461332228473</v>
       </c>
       <c r="R30" t="n">
-        <v>2139.461332228473</v>
+        <v>2061.476403340059</v>
       </c>
       <c r="S30" t="n">
-        <v>1974.078278801858</v>
+        <v>1896.093349913444</v>
       </c>
       <c r="T30" t="n">
-        <v>1774.838787003044</v>
+        <v>1696.85385811463</v>
       </c>
       <c r="U30" t="n">
-        <v>1691.456068868602</v>
+        <v>1469.946136503144</v>
       </c>
       <c r="V30" t="n">
-        <v>1457.204825394203</v>
+        <v>1235.694893028744</v>
       </c>
       <c r="W30" t="n">
-        <v>1204.690333727536</v>
+        <v>983.1804013620778</v>
       </c>
       <c r="X30" t="n">
-        <v>998.1634351331137</v>
+        <v>776.6535027676553</v>
       </c>
       <c r="Y30" t="n">
-        <v>935.9600028338087</v>
+        <v>570.9250669913057</v>
       </c>
     </row>
     <row r="31">
@@ -6619,22 +6619,22 @@
         <v>57.73973565765712</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9880302901251</v>
+        <v>57.73973565765712</v>
       </c>
       <c r="K31" t="n">
-        <v>139.5250602713532</v>
+        <v>163.532832616952</v>
       </c>
       <c r="L31" t="n">
-        <v>352.0406133432631</v>
+        <v>376.0483856888619</v>
       </c>
       <c r="M31" t="n">
-        <v>438.385781474856</v>
+        <v>462.3935538204548</v>
       </c>
       <c r="N31" t="n">
-        <v>668.4879723019117</v>
+        <v>551.8268887396591</v>
       </c>
       <c r="O31" t="n">
-        <v>876.4263916569366</v>
+        <v>759.7653080946841</v>
       </c>
       <c r="P31" t="n">
         <v>934.7724153134885</v>
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1523.78069876237</v>
+        <v>1523.780698762371</v>
       </c>
       <c r="C32" t="n">
         <v>1296.613686402099</v>
@@ -6683,7 +6683,7 @@
         <v>1079.931889116923</v>
       </c>
       <c r="E32" t="n">
-        <v>836.4689776896366</v>
+        <v>836.468977689637</v>
       </c>
       <c r="F32" t="n">
         <v>568.5860382570443</v>
@@ -6698,13 +6698,13 @@
         <v>57.73973565765712</v>
       </c>
       <c r="J32" t="n">
-        <v>241.9941775163062</v>
+        <v>241.9941775163059</v>
       </c>
       <c r="K32" t="n">
-        <v>570.2631210984067</v>
+        <v>570.2631210984064</v>
       </c>
       <c r="L32" t="n">
-        <v>995.6355526238108</v>
+        <v>995.6355526238106</v>
       </c>
       <c r="M32" t="n">
         <v>1468.304286770376</v>
@@ -6725,7 +6725,7 @@
         <v>2886.986782882856</v>
       </c>
       <c r="S32" t="n">
-        <v>2834.68595129089</v>
+        <v>2834.685951290889</v>
       </c>
       <c r="T32" t="n">
         <v>2755.321651464883</v>
@@ -6734,16 +6734,16 @@
         <v>2644.871256525505</v>
       </c>
       <c r="V32" t="n">
-        <v>2456.544521090913</v>
+        <v>2456.544521090914</v>
       </c>
       <c r="W32" t="n">
-        <v>2245.998699314873</v>
+        <v>2245.998699314874</v>
       </c>
       <c r="X32" t="n">
-        <v>2014.916026901847</v>
+        <v>2014.916026901848</v>
       </c>
       <c r="Y32" t="n">
-        <v>1767.848028609967</v>
+        <v>1767.848028609968</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>977.9825297779238</v>
+        <v>625.3924482352037</v>
       </c>
       <c r="C33" t="n">
-        <v>805.229414699741</v>
+        <v>452.6393331570209</v>
       </c>
       <c r="D33" t="n">
-        <v>657.6411080586849</v>
+        <v>305.0510265159647</v>
       </c>
       <c r="E33" t="n">
-        <v>500.0315790615397</v>
+        <v>290.966500995864</v>
       </c>
       <c r="F33" t="n">
-        <v>355.0757890781565</v>
+        <v>194.8523756508172</v>
       </c>
       <c r="G33" t="n">
-        <v>217.9631490849964</v>
+        <v>57.73973565765712</v>
       </c>
       <c r="H33" t="n">
-        <v>135.3203200426884</v>
+        <v>57.73973565765712</v>
       </c>
       <c r="I33" t="n">
         <v>57.73973565765712</v>
@@ -6801,28 +6801,28 @@
         <v>2139.461332228473</v>
       </c>
       <c r="R33" t="n">
-        <v>2061.476403340059</v>
+        <v>2139.461332228473</v>
       </c>
       <c r="S33" t="n">
-        <v>1896.093349913444</v>
+        <v>2117.603282278903</v>
       </c>
       <c r="T33" t="n">
-        <v>1840.378861591675</v>
+        <v>1918.363790480088</v>
       </c>
       <c r="U33" t="n">
-        <v>1613.471139980188</v>
+        <v>1691.456068868602</v>
       </c>
       <c r="V33" t="n">
-        <v>1379.219896505789</v>
+        <v>1457.204825394203</v>
       </c>
       <c r="W33" t="n">
-        <v>1270.230408316167</v>
+        <v>1204.690333727536</v>
       </c>
       <c r="X33" t="n">
-        <v>1207.228513198789</v>
+        <v>998.1634351331137</v>
       </c>
       <c r="Y33" t="n">
-        <v>1145.025080899484</v>
+        <v>792.4349993567641</v>
       </c>
     </row>
     <row r="34">
@@ -6856,19 +6856,19 @@
         <v>57.73973565765712</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9880302901251</v>
+        <v>57.73973565765712</v>
       </c>
       <c r="K34" t="n">
-        <v>280.1939161792045</v>
+        <v>70.27676563888522</v>
       </c>
       <c r="L34" t="n">
-        <v>352.040613343263</v>
+        <v>142.1234628029438</v>
       </c>
       <c r="M34" t="n">
-        <v>438.3857814748559</v>
+        <v>369.1374868423881</v>
       </c>
       <c r="N34" t="n">
-        <v>527.8191163940602</v>
+        <v>470.5432853185266</v>
       </c>
       <c r="O34" t="n">
         <v>678.4817046735516</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>965.1746397653426</v>
+        <v>965.1746397653424</v>
       </c>
       <c r="C35" t="n">
-        <v>819.9571146446355</v>
+        <v>819.957114644635</v>
       </c>
       <c r="D35" t="n">
-        <v>685.2248045990233</v>
+        <v>685.2248045990228</v>
       </c>
       <c r="E35" t="n">
-        <v>523.711380411301</v>
+        <v>523.7113804113005</v>
       </c>
       <c r="F35" t="n">
-        <v>337.7779282182722</v>
+        <v>337.7779282182715</v>
       </c>
       <c r="G35" t="n">
         <v>144.7390087326019</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>567.6853302862628</v>
+        <v>326.6444700050487</v>
       </c>
       <c r="C36" t="n">
-        <v>567.6853302862628</v>
+        <v>326.6444700050487</v>
       </c>
       <c r="D36" t="n">
-        <v>420.0970236452067</v>
+        <v>179.0561633639926</v>
       </c>
       <c r="E36" t="n">
-        <v>262.4874946480613</v>
+        <v>179.0561633639926</v>
       </c>
       <c r="F36" t="n">
-        <v>117.5317046646782</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="G36" t="n">
-        <v>117.5317046646782</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="H36" t="n">
         <v>34.10037338060944</v>
@@ -7014,19 +7014,19 @@
         <v>34.10037338060944</v>
       </c>
       <c r="J36" t="n">
-        <v>67.84169496362993</v>
+        <v>67.84169496362995</v>
       </c>
       <c r="K36" t="n">
         <v>252.1166010199254</v>
       </c>
       <c r="L36" t="n">
-        <v>560.746560111683</v>
+        <v>252.1166010199254</v>
       </c>
       <c r="M36" t="n">
-        <v>580.1932066927969</v>
+        <v>665.0734002200043</v>
       </c>
       <c r="N36" t="n">
-        <v>1002.185327277839</v>
+        <v>1087.065520805046</v>
       </c>
       <c r="O36" t="n">
         <v>1336.417508272932</v>
@@ -7038,28 +7038,28 @@
         <v>1705.018669030472</v>
       </c>
       <c r="R36" t="n">
-        <v>1627.033740142058</v>
+        <v>1705.018669030472</v>
       </c>
       <c r="S36" t="n">
-        <v>1461.650686715443</v>
+        <v>1705.018669030472</v>
       </c>
       <c r="T36" t="n">
-        <v>1262.411194916629</v>
+        <v>1619.615812249933</v>
       </c>
       <c r="U36" t="n">
-        <v>1035.503473305143</v>
+        <v>1392.708090638447</v>
       </c>
       <c r="V36" t="n">
-        <v>1026.726720547352</v>
+        <v>1158.456847164048</v>
       </c>
       <c r="W36" t="n">
-        <v>774.2122288806853</v>
+        <v>905.9423554973812</v>
       </c>
       <c r="X36" t="n">
-        <v>567.6853302862628</v>
+        <v>699.4154569029587</v>
       </c>
       <c r="Y36" t="n">
-        <v>567.6853302862628</v>
+        <v>493.6870211266092</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>231.7963325167432</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="C37" t="n">
-        <v>231.7963325167432</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="D37" t="n">
-        <v>231.7963325167432</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="E37" t="n">
-        <v>231.7963325167432</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="F37" t="n">
-        <v>231.7963325167432</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="G37" t="n">
-        <v>62.44943963435344</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="H37" t="n">
         <v>34.10037338060944</v>
@@ -7096,7 +7096,7 @@
         <v>34.10037338060944</v>
       </c>
       <c r="K37" t="n">
-        <v>46.63740336183754</v>
+        <v>46.63740336183755</v>
       </c>
       <c r="L37" t="n">
         <v>118.4841005258961</v>
@@ -7105,40 +7105,40 @@
         <v>204.829268657489</v>
       </c>
       <c r="N37" t="n">
-        <v>294.2626035766932</v>
+        <v>294.2626035766933</v>
       </c>
       <c r="O37" t="n">
-        <v>361.5321670238668</v>
+        <v>361.5321670238669</v>
       </c>
       <c r="P37" t="n">
-        <v>395.8704183348199</v>
+        <v>395.87041833482</v>
       </c>
       <c r="Q37" t="n">
-        <v>395.8704183348199</v>
+        <v>395.87041833482</v>
       </c>
       <c r="R37" t="n">
-        <v>395.8704183348199</v>
+        <v>395.87041833482</v>
       </c>
       <c r="S37" t="n">
-        <v>395.8704183348199</v>
+        <v>395.87041833482</v>
       </c>
       <c r="T37" t="n">
-        <v>391.7253156621629</v>
+        <v>391.725315662163</v>
       </c>
       <c r="U37" t="n">
-        <v>328.2711309595077</v>
+        <v>328.2711309595078</v>
       </c>
       <c r="V37" t="n">
-        <v>298.2543579721372</v>
+        <v>298.2543579721374</v>
       </c>
       <c r="W37" t="n">
-        <v>234.7464477923663</v>
+        <v>234.7464477923665</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7963325167432</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="Y37" t="n">
-        <v>231.7963325167432</v>
+        <v>34.10037338060944</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>965.1746397653424</v>
+        <v>965.174639765342</v>
       </c>
       <c r="C38" t="n">
-        <v>819.957114644635</v>
+        <v>819.9571146446347</v>
       </c>
       <c r="D38" t="n">
-        <v>685.2248045990229</v>
+        <v>685.2248045990227</v>
       </c>
       <c r="E38" t="n">
-        <v>523.7113804113008</v>
+        <v>523.7113804113004</v>
       </c>
       <c r="F38" t="n">
-        <v>337.7779282182719</v>
+        <v>337.7779282182717</v>
       </c>
       <c r="G38" t="n">
         <v>144.7390087326019</v>
       </c>
       <c r="H38" t="n">
-        <v>34.10037338060943</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="I38" t="n">
-        <v>34.10037338060943</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="J38" t="n">
-        <v>77.68595933140705</v>
+        <v>77.68595933140716</v>
       </c>
       <c r="K38" t="n">
-        <v>265.2860470056564</v>
+        <v>265.2860470056563</v>
       </c>
       <c r="L38" t="n">
         <v>549.989622623209</v>
       </c>
       <c r="M38" t="n">
-        <v>881.9895008619227</v>
+        <v>881.9895008619228</v>
       </c>
       <c r="N38" t="n">
         <v>1203.844309233456</v>
@@ -7211,7 +7211,7 @@
         <v>1570.14051313563</v>
       </c>
       <c r="W38" t="n">
-        <v>1441.544178599154</v>
+        <v>1441.544178599153</v>
       </c>
       <c r="X38" t="n">
         <v>1292.410993425692</v>
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>585.7718875315758</v>
+        <v>512.0513240969938</v>
       </c>
       <c r="C39" t="n">
-        <v>585.7718875315758</v>
+        <v>339.2982090188109</v>
       </c>
       <c r="D39" t="n">
-        <v>438.1835808905196</v>
+        <v>191.7099023777548</v>
       </c>
       <c r="E39" t="n">
-        <v>280.5740518933743</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="F39" t="n">
-        <v>171.2130133737695</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="G39" t="n">
-        <v>34.10037338060943</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="H39" t="n">
-        <v>34.10037338060943</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="I39" t="n">
-        <v>34.10037338060943</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="J39" t="n">
-        <v>67.84169496362992</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="K39" t="n">
-        <v>252.1166010199254</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="L39" t="n">
-        <v>252.1166010199254</v>
+        <v>342.730332472367</v>
       </c>
       <c r="M39" t="n">
-        <v>665.0734002200043</v>
+        <v>755.687131672446</v>
       </c>
       <c r="N39" t="n">
-        <v>1002.185327277838</v>
+        <v>1177.679252257488</v>
       </c>
       <c r="O39" t="n">
-        <v>1336.417508272932</v>
+        <v>1453.194418431013</v>
       </c>
       <c r="P39" t="n">
-        <v>1588.241758872392</v>
+        <v>1705.018669030472</v>
       </c>
       <c r="Q39" t="n">
         <v>1705.018669030472</v>
@@ -7284,19 +7284,19 @@
         <v>1427.794248343244</v>
       </c>
       <c r="U39" t="n">
-        <v>1200.886526731757</v>
+        <v>1352.640454013784</v>
       </c>
       <c r="V39" t="n">
-        <v>1192.109773973967</v>
+        <v>1343.863701255993</v>
       </c>
       <c r="W39" t="n">
-        <v>1165.069773023908</v>
+        <v>1091.349209589326</v>
       </c>
       <c r="X39" t="n">
-        <v>958.5428744294858</v>
+        <v>884.8223109949038</v>
       </c>
       <c r="Y39" t="n">
-        <v>752.8144386531362</v>
+        <v>679.0938752185542</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>182.5595897171742</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="C40" t="n">
-        <v>182.5595897171742</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="D40" t="n">
-        <v>182.5595897171742</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="E40" t="n">
-        <v>34.10037338060943</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="F40" t="n">
-        <v>34.10037338060943</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="G40" t="n">
-        <v>34.10037338060943</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="H40" t="n">
-        <v>34.10037338060943</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="I40" t="n">
-        <v>34.10037338060943</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="J40" t="n">
-        <v>34.10037338060943</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="K40" t="n">
-        <v>46.63740336183753</v>
+        <v>46.63740336183755</v>
       </c>
       <c r="L40" t="n">
         <v>118.4841005258961</v>
@@ -7342,40 +7342,40 @@
         <v>204.829268657489</v>
       </c>
       <c r="N40" t="n">
-        <v>294.2626035766932</v>
+        <v>294.2626035766933</v>
       </c>
       <c r="O40" t="n">
-        <v>361.5321670238668</v>
+        <v>361.5321670238669</v>
       </c>
       <c r="P40" t="n">
-        <v>395.8704183348199</v>
+        <v>395.87041833482</v>
       </c>
       <c r="Q40" t="n">
-        <v>395.8704183348199</v>
+        <v>395.87041833482</v>
       </c>
       <c r="R40" t="n">
-        <v>395.8704183348199</v>
+        <v>395.87041833482</v>
       </c>
       <c r="S40" t="n">
-        <v>395.8704183348199</v>
+        <v>395.87041833482</v>
       </c>
       <c r="T40" t="n">
-        <v>391.7253156621629</v>
+        <v>194.0293565260291</v>
       </c>
       <c r="U40" t="n">
-        <v>328.2711309595077</v>
+        <v>130.5751718233739</v>
       </c>
       <c r="V40" t="n">
-        <v>298.2543579721372</v>
+        <v>100.5583988360034</v>
       </c>
       <c r="W40" t="n">
-        <v>185.5097049927974</v>
+        <v>37.05048865623255</v>
       </c>
       <c r="X40" t="n">
-        <v>182.5595897171742</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="Y40" t="n">
-        <v>182.5595897171742</v>
+        <v>34.10037338060944</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.9782090117069</v>
+        <v>976.9782090117077</v>
       </c>
       <c r="C41" t="n">
         <v>833.4293455869777</v>
@@ -7403,55 +7403,55 @@
         <v>147.8704900207137</v>
       </c>
       <c r="H41" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="I41" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="J41" t="n">
-        <v>78.23225320596138</v>
+        <v>78.23225320596141</v>
       </c>
       <c r="K41" t="n">
         <v>265.8323408802106</v>
       </c>
       <c r="L41" t="n">
-        <v>577.3043163509194</v>
+        <v>550.5359164977633</v>
       </c>
       <c r="M41" t="n">
-        <v>909.3041945896332</v>
+        <v>909.3041945896338</v>
       </c>
       <c r="N41" t="n">
-        <v>1231.159002961166</v>
+        <v>1231.159002961167</v>
       </c>
       <c r="O41" t="n">
-        <v>1488.949020415768</v>
+        <v>1488.949020415769</v>
       </c>
       <c r="P41" t="n">
-        <v>1672.028042962425</v>
+        <v>1672.028042962426</v>
       </c>
       <c r="Q41" t="n">
-        <v>1732.333362758182</v>
+        <v>1732.333362758183</v>
       </c>
       <c r="R41" t="n">
-        <v>1732.333362758182</v>
+        <v>1732.333362758183</v>
       </c>
       <c r="S41" t="n">
-        <v>1732.333362758182</v>
+        <v>1732.333362758183</v>
       </c>
       <c r="T41" t="n">
-        <v>1732.333362758182</v>
+        <v>1732.333362758183</v>
       </c>
       <c r="U41" t="n">
         <v>1701.247267644811</v>
       </c>
       <c r="V41" t="n">
-        <v>1592.284832036225</v>
+        <v>1592.284832036226</v>
       </c>
       <c r="W41" t="n">
-        <v>1461.103310086191</v>
+        <v>1461.103310086192</v>
       </c>
       <c r="X41" t="n">
-        <v>1309.384937499172</v>
+        <v>1309.384937499173</v>
       </c>
       <c r="Y41" t="n">
         <v>1141.681239033298</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>474.3246262288521</v>
+        <v>369.5255332973654</v>
       </c>
       <c r="C42" t="n">
-        <v>474.3246262288521</v>
+        <v>196.7724182191826</v>
       </c>
       <c r="D42" t="n">
-        <v>474.3246262288521</v>
+        <v>196.7724182191826</v>
       </c>
       <c r="E42" t="n">
-        <v>316.7150972317069</v>
+        <v>196.7724182191826</v>
       </c>
       <c r="F42" t="n">
-        <v>171.7593072483238</v>
+        <v>51.81662823579947</v>
       </c>
       <c r="G42" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="H42" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="I42" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="J42" t="n">
-        <v>68.38798883818413</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="K42" t="n">
-        <v>252.6628948944796</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="L42" t="n">
-        <v>561.2928539862372</v>
+        <v>343.2766263469213</v>
       </c>
       <c r="M42" t="n">
-        <v>974.2496531863161</v>
+        <v>756.2334255470001</v>
       </c>
       <c r="N42" t="n">
-        <v>1029.500021005549</v>
+        <v>1184.98593282965</v>
       </c>
       <c r="O42" t="n">
-        <v>1363.732202000642</v>
+        <v>1519.218113824744</v>
       </c>
       <c r="P42" t="n">
-        <v>1615.556452600102</v>
+        <v>1615.556452600103</v>
       </c>
       <c r="Q42" t="n">
-        <v>1732.333362758182</v>
+        <v>1732.333362758183</v>
       </c>
       <c r="R42" t="n">
-        <v>1732.333362758182</v>
+        <v>1654.348433869769</v>
       </c>
       <c r="S42" t="n">
-        <v>1576.60360584794</v>
+        <v>1488.965380443155</v>
       </c>
       <c r="T42" t="n">
-        <v>1377.364114049126</v>
+        <v>1289.72588864434</v>
       </c>
       <c r="U42" t="n">
-        <v>1373.34569574069</v>
+        <v>1062.818167032854</v>
       </c>
       <c r="V42" t="n">
-        <v>1139.094452266291</v>
+        <v>828.5669235584546</v>
       </c>
       <c r="W42" t="n">
-        <v>886.5799605996242</v>
+        <v>576.0524318917879</v>
       </c>
       <c r="X42" t="n">
-        <v>680.0530620052017</v>
+        <v>369.5255332973654</v>
       </c>
       <c r="Y42" t="n">
-        <v>474.3246262288521</v>
+        <v>369.5255332973654</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="C43" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="D43" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="E43" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="F43" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="G43" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="H43" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="I43" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="J43" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="K43" t="n">
-        <v>47.18369723639174</v>
+        <v>47.18369723639177</v>
       </c>
       <c r="L43" t="n">
         <v>119.0303944004503</v>
       </c>
       <c r="M43" t="n">
-        <v>205.3755625320431</v>
+        <v>205.3755625320432</v>
       </c>
       <c r="N43" t="n">
-        <v>294.8088974512474</v>
+        <v>294.8088974512475</v>
       </c>
       <c r="O43" t="n">
-        <v>362.078460898421</v>
+        <v>362.0784608984211</v>
       </c>
       <c r="P43" t="n">
-        <v>396.4167122093741</v>
+        <v>396.4167122093742</v>
       </c>
       <c r="Q43" t="n">
-        <v>396.4167122093741</v>
+        <v>335.8256985508513</v>
       </c>
       <c r="R43" t="n">
-        <v>396.4167122093741</v>
+        <v>335.8256985508513</v>
       </c>
       <c r="S43" t="n">
-        <v>396.4167122093741</v>
+        <v>335.8256985508513</v>
       </c>
       <c r="T43" t="n">
-        <v>204.9164000548138</v>
+        <v>329.0954084646366</v>
       </c>
       <c r="U43" t="n">
-        <v>138.877027938601</v>
+        <v>263.0560363484238</v>
       </c>
       <c r="V43" t="n">
-        <v>106.2750675376729</v>
+        <v>230.4540759474957</v>
       </c>
       <c r="W43" t="n">
-        <v>40.18196994434438</v>
+        <v>164.3609783541672</v>
       </c>
       <c r="X43" t="n">
-        <v>34.64666725516364</v>
+        <v>158.8256756649864</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.978209011708</v>
+        <v>976.9782090117086</v>
       </c>
       <c r="C44" t="n">
-        <v>829.1754964774432</v>
+        <v>829.1754964774434</v>
       </c>
       <c r="D44" t="n">
-        <v>691.8579990182736</v>
+        <v>691.8579990182737</v>
       </c>
       <c r="E44" t="n">
-        <v>527.7593874169937</v>
+        <v>527.7593874169938</v>
       </c>
       <c r="F44" t="n">
         <v>339.2407478104074</v>
       </c>
       <c r="G44" t="n">
-        <v>147.8704900207136</v>
+        <v>143.6166409111798</v>
       </c>
       <c r="H44" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="I44" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="J44" t="n">
-        <v>78.23225320596138</v>
+        <v>78.23225320596141</v>
       </c>
       <c r="K44" t="n">
         <v>265.8323408802106</v>
@@ -7658,34 +7658,34 @@
         <v>882.5357947364771</v>
       </c>
       <c r="N44" t="n">
-        <v>1231.159002961166</v>
+        <v>1204.39060310801</v>
       </c>
       <c r="O44" t="n">
-        <v>1488.949020415768</v>
+        <v>1462.180620562612</v>
       </c>
       <c r="P44" t="n">
-        <v>1672.028042962425</v>
+        <v>1645.259643109269</v>
       </c>
       <c r="Q44" t="n">
-        <v>1732.333362758182</v>
+        <v>1705.564962905026</v>
       </c>
       <c r="R44" t="n">
-        <v>1732.333362758182</v>
+        <v>1732.333362758183</v>
       </c>
       <c r="S44" t="n">
-        <v>1732.333362758182</v>
+        <v>1732.333362758183</v>
       </c>
       <c r="T44" t="n">
-        <v>1732.333362758182</v>
+        <v>1732.333362758183</v>
       </c>
       <c r="U44" t="n">
         <v>1701.247267644811</v>
       </c>
       <c r="V44" t="n">
-        <v>1592.284832036226</v>
+        <v>1592.284832036227</v>
       </c>
       <c r="W44" t="n">
-        <v>1461.103310086192</v>
+        <v>1461.103310086193</v>
       </c>
       <c r="X44" t="n">
         <v>1309.384937499173</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>758.5404794773444</v>
+        <v>576.0524318917879</v>
       </c>
       <c r="C45" t="n">
-        <v>585.7873643991616</v>
+        <v>403.2993168136051</v>
       </c>
       <c r="D45" t="n">
-        <v>438.1990577581055</v>
+        <v>337.2119862356921</v>
       </c>
       <c r="E45" t="n">
-        <v>280.5895287609602</v>
+        <v>179.6024572385468</v>
       </c>
       <c r="F45" t="n">
-        <v>280.5895287609602</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="G45" t="n">
-        <v>143.4768887678001</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="H45" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="I45" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="J45" t="n">
-        <v>68.38798883818413</v>
+        <v>68.38798883818416</v>
       </c>
       <c r="K45" t="n">
         <v>252.6628948944796</v>
       </c>
       <c r="L45" t="n">
-        <v>561.2928539862372</v>
+        <v>252.6628948944796</v>
       </c>
       <c r="M45" t="n">
-        <v>600.7475137228988</v>
+        <v>665.6196940945586</v>
       </c>
       <c r="N45" t="n">
-        <v>1029.500021005549</v>
+        <v>1094.372201377209</v>
       </c>
       <c r="O45" t="n">
-        <v>1363.732202000642</v>
+        <v>1363.732202000643</v>
       </c>
       <c r="P45" t="n">
-        <v>1615.556452600102</v>
+        <v>1615.556452600103</v>
       </c>
       <c r="Q45" t="n">
-        <v>1732.333362758182</v>
+        <v>1732.333362758183</v>
       </c>
       <c r="R45" t="n">
         <v>1654.348433869769</v>
       </c>
       <c r="S45" t="n">
-        <v>1488.965380443154</v>
+        <v>1488.965380443155</v>
       </c>
       <c r="T45" t="n">
-        <v>1488.965380443154</v>
+        <v>1289.72588864434</v>
       </c>
       <c r="U45" t="n">
-        <v>1484.946962134718</v>
+        <v>1062.818167032854</v>
       </c>
       <c r="V45" t="n">
-        <v>1473.58502196337</v>
+        <v>828.5669235584546</v>
       </c>
       <c r="W45" t="n">
-        <v>1337.838364969677</v>
+        <v>576.0524318917879</v>
       </c>
       <c r="X45" t="n">
-        <v>1131.311466375254</v>
+        <v>576.0524318917879</v>
       </c>
       <c r="Y45" t="n">
-        <v>925.5830305989049</v>
+        <v>576.0524318917879</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="C46" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="D46" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="E46" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="F46" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="G46" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="H46" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="I46" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="J46" t="n">
-        <v>34.64666725516364</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="K46" t="n">
-        <v>47.18369723639174</v>
+        <v>47.18369723639177</v>
       </c>
       <c r="L46" t="n">
         <v>119.0303944004503</v>
       </c>
       <c r="M46" t="n">
-        <v>205.3755625320431</v>
+        <v>205.3755625320432</v>
       </c>
       <c r="N46" t="n">
-        <v>294.8088974512474</v>
+        <v>294.8088974512475</v>
       </c>
       <c r="O46" t="n">
-        <v>362.078460898421</v>
+        <v>362.0784608984211</v>
       </c>
       <c r="P46" t="n">
-        <v>396.4167122093741</v>
+        <v>396.4167122093742</v>
       </c>
       <c r="Q46" t="n">
-        <v>396.4167122093741</v>
+        <v>396.4167122093742</v>
       </c>
       <c r="R46" t="n">
-        <v>396.4167122093741</v>
+        <v>396.4167122093742</v>
       </c>
       <c r="S46" t="n">
-        <v>396.4167122093741</v>
+        <v>211.6466901410282</v>
       </c>
       <c r="T46" t="n">
-        <v>389.6864221231595</v>
+        <v>204.9164000548136</v>
       </c>
       <c r="U46" t="n">
-        <v>323.6470500069468</v>
+        <v>138.8770279386008</v>
       </c>
       <c r="V46" t="n">
-        <v>291.0450896060187</v>
+        <v>106.2750675376728</v>
       </c>
       <c r="W46" t="n">
-        <v>224.9519920126903</v>
+        <v>40.18196994434435</v>
       </c>
       <c r="X46" t="n">
-        <v>219.4166893235097</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="Y46" t="n">
-        <v>216.549385932622</v>
+        <v>34.64666725516366</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>175.8604797789574</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
         <v>337.1112290740114</v>
@@ -8699,7 +8699,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N11" t="n">
-        <v>454.8408013884635</v>
+        <v>454.8408013884634</v>
       </c>
       <c r="O11" t="n">
         <v>396.0321885132552</v>
@@ -8772,16 +8772,16 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>325.797220101586</v>
       </c>
       <c r="M12" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>83.56324010421177</v>
+        <v>481.0482427496305</v>
       </c>
       <c r="O12" t="n">
-        <v>409.6168120477987</v>
+        <v>72.00854841639099</v>
       </c>
       <c r="P12" t="n">
         <v>331.2012793855346</v>
@@ -8927,7 +8927,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1112290740114</v>
+        <v>337.111229074012</v>
       </c>
       <c r="L14" t="n">
         <v>434.3676631324684</v>
@@ -9006,7 +9006,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>88.90757774934906</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9015,16 +9015,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>481.0482427496305</v>
+        <v>481.0482427496306</v>
       </c>
       <c r="O15" t="n">
-        <v>130.0882843095313</v>
+        <v>316.2245530532643</v>
       </c>
       <c r="P15" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>100.5239043381313</v>
+        <v>100.5239043381314</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9164,7 +9164,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1112290740115</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L17" t="n">
         <v>434.3676631324684</v>
@@ -9243,7 +9243,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0438464930818</v>
+        <v>131.9267737461067</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9252,13 +9252,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>83.56324010421133</v>
+        <v>481.0482427496305</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2012793855346</v>
+        <v>76.83334948709069</v>
       </c>
       <c r="Q18" t="n">
         <v>218.4803792452831</v>
@@ -9407,7 +9407,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M20" t="n">
-        <v>467.4940748325458</v>
+        <v>467.4940748325459</v>
       </c>
       <c r="N20" t="n">
         <v>454.8408013884635</v>
@@ -9419,7 +9419,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
-        <v>220.8075902863011</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9489,13 +9489,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>83.56324010421133</v>
+        <v>481.0482427496305</v>
       </c>
       <c r="O21" t="n">
-        <v>409.6168120477987</v>
+        <v>72.00854841639099</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>271.3245403715232</v>
       </c>
       <c r="Q21" t="n">
         <v>218.4803792452831</v>
@@ -9638,7 +9638,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740116</v>
       </c>
       <c r="L23" t="n">
         <v>434.3676631324684</v>
@@ -9653,7 +9653,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P23" t="n">
-        <v>334.6706564983422</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q23" t="n">
         <v>220.8075902863009</v>
@@ -9717,16 +9717,16 @@
         <v>97.05253374087317</v>
       </c>
       <c r="K24" t="n">
-        <v>223.3884202868325</v>
+        <v>88.907577749349</v>
       </c>
       <c r="L24" t="n">
-        <v>73.92652568957979</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>481.0482427496305</v>
+        <v>421.7381267682482</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9735,7 +9735,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5239043381313</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10668,16 +10668,16 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>385.6739591155975</v>
+        <v>73.92652568957978</v>
       </c>
       <c r="M36" t="n">
-        <v>86.8482636545808</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
         <v>481.0482427496305</v>
       </c>
       <c r="O36" t="n">
-        <v>409.6168120477987</v>
+        <v>323.8792428283972</v>
       </c>
       <c r="P36" t="n">
         <v>331.2012793855346</v>
@@ -10899,28 +10899,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>97.05253374087316</v>
       </c>
       <c r="K39" t="n">
-        <v>275.0438464930818</v>
+        <v>88.90757774934899</v>
       </c>
       <c r="L39" t="n">
-        <v>73.92652568957979</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>395.310673530229</v>
+        <v>481.0482427496305</v>
       </c>
       <c r="O39" t="n">
-        <v>409.6168120477987</v>
+        <v>350.3066960664159</v>
       </c>
       <c r="P39" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5239043381313</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11136,10 +11136,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>97.05253374087316</v>
       </c>
       <c r="K42" t="n">
-        <v>275.0438464930818</v>
+        <v>88.90757774934899</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11148,13 +11148,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>110.6020278346719</v>
+        <v>487.8769161815583</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>331.2012793855346</v>
+        <v>174.1448027955339</v>
       </c>
       <c r="Q42" t="n">
         <v>218.4803792452831</v>
@@ -11379,16 +11379,16 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
-        <v>385.6739591155975</v>
+        <v>73.92652568957978</v>
       </c>
       <c r="M45" t="n">
-        <v>107.0583779531138</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>487.876916181558</v>
+        <v>487.8769161815583</v>
       </c>
       <c r="O45" t="n">
-        <v>409.6168120477987</v>
+        <v>344.0893571269308</v>
       </c>
       <c r="P45" t="n">
         <v>331.2012793855346</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.5290748744748</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>244.7977605620224</v>
       </c>
       <c r="D11" t="n">
         <v>234.4173976376782</v>
       </c>
       <c r="E11" t="n">
-        <v>16.00474832404887</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>285.1065283636206</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>292.1409409833356</v>
       </c>
       <c r="H11" t="n">
-        <v>210.5646596909946</v>
+        <v>85.15733437294122</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.73949387512455</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>206.3458864055991</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>228.3427818836344</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>243.1596122430834</v>
+        <v>261.5290748744748</v>
       </c>
       <c r="C14" t="n">
         <v>244.7977605620224</v>
       </c>
       <c r="D14" t="n">
-        <v>234.4173976376782</v>
+        <v>97.20769752212293</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>285.1065283636206</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>292.1409409833356</v>
       </c>
       <c r="H14" t="n">
-        <v>210.5646596909946</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.73949387512455</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.68024160140131</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>129.2483093153382</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>248.6742640142492</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>264.4997366343156</v>
       </c>
     </row>
     <row r="15">
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.074338869684234e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.211310618440365</v>
+        <v>4.211310618439398</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25877,10 +25877,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.211310618438915</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>4.211310618438446</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>719372.7411410965</v>
+        <v>719372.7411410963</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>719372.7411410963</v>
+        <v>719372.7411410965</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>811656.0060865036</v>
+        <v>811656.0060865039</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>771548.558867954</v>
+        <v>771548.5588679537</v>
       </c>
       <c r="C2" t="n">
-        <v>771548.5588679534</v>
+        <v>771548.5588679536</v>
       </c>
       <c r="D2" t="n">
-        <v>771548.5588679536</v>
+        <v>771548.5588679535</v>
       </c>
       <c r="E2" t="n">
-        <v>663931.2330855555</v>
+        <v>663931.2330855554</v>
       </c>
       <c r="F2" t="n">
         <v>663931.2330855554</v>
       </c>
       <c r="G2" t="n">
-        <v>773223.4381841895</v>
+        <v>773223.4381841894</v>
       </c>
       <c r="H2" t="n">
-        <v>773223.4381841894</v>
+        <v>773223.4381841893</v>
       </c>
       <c r="I2" t="n">
-        <v>773223.4381841894</v>
+        <v>773223.4381841893</v>
       </c>
       <c r="J2" t="n">
-        <v>773223.4381841886</v>
+        <v>773223.4381841888</v>
       </c>
       <c r="K2" t="n">
-        <v>773223.4381841898</v>
+        <v>773223.4381841897</v>
       </c>
       <c r="L2" t="n">
+        <v>773223.4381841893</v>
+      </c>
+      <c r="M2" t="n">
         <v>773223.4381841891</v>
       </c>
-      <c r="M2" t="n">
-        <v>773223.4381841893</v>
-      </c>
       <c r="N2" t="n">
-        <v>773223.4381841893</v>
+        <v>773223.438184189</v>
       </c>
       <c r="O2" t="n">
-        <v>772904.978875223</v>
+        <v>772904.9788752232</v>
       </c>
       <c r="P2" t="n">
-        <v>772904.9788752233</v>
+        <v>772904.9788752232</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330237.1767665685</v>
+        <v>330237.1767665686</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.021374298698698e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>80825.92855401775</v>
+        <v>80825.92855401774</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80825.92855401774</v>
+        <v>80825.92855401772</v>
       </c>
       <c r="M3" t="n">
-        <v>97490.56653188469</v>
+        <v>97490.56653188467</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32441.73285833076</v>
+        <v>32441.73285833082</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26454,7 +26454,7 @@
         <v>378634.9869152867</v>
       </c>
       <c r="O4" t="n">
-        <v>378347.6173998687</v>
+        <v>378347.6173998688</v>
       </c>
       <c r="P4" t="n">
         <v>378347.6173998688</v>
@@ -26491,7 +26491,7 @@
         <v>47537.16445067909</v>
       </c>
       <c r="J5" t="n">
-        <v>58682.56245291985</v>
+        <v>58682.56245291986</v>
       </c>
       <c r="K5" t="n">
         <v>58682.56245291985</v>
@@ -26503,13 +26503,13 @@
         <v>47537.16445067909</v>
       </c>
       <c r="N5" t="n">
-        <v>47537.16445067908</v>
+        <v>47537.16445067909</v>
       </c>
       <c r="O5" t="n">
-        <v>47737.18701587661</v>
+        <v>47737.18701587663</v>
       </c>
       <c r="P5" t="n">
-        <v>47737.18701587662</v>
+        <v>47737.18701587663</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>299995.4401184999</v>
+        <v>299991.0325413516</v>
       </c>
       <c r="C6" t="n">
-        <v>299995.4401184993</v>
+        <v>299991.0325413515</v>
       </c>
       <c r="D6" t="n">
-        <v>299995.4401184995</v>
+        <v>299991.0325413514</v>
       </c>
       <c r="E6" t="n">
-        <v>-18581.71076876302</v>
+        <v>-18869.32183481229</v>
       </c>
       <c r="F6" t="n">
-        <v>311655.4659978054</v>
+        <v>311367.8549317563</v>
       </c>
       <c r="G6" t="n">
-        <v>266225.3582642059</v>
+        <v>266225.3582642057</v>
       </c>
       <c r="H6" t="n">
-        <v>347051.2868182235</v>
+        <v>347051.2868182234</v>
       </c>
       <c r="I6" t="n">
-        <v>347051.2868182235</v>
+        <v>347051.2868182234</v>
       </c>
       <c r="J6" t="n">
-        <v>226286.6849352336</v>
+        <v>226286.6849352338</v>
       </c>
       <c r="K6" t="n">
-        <v>336446.2754302349</v>
+        <v>336446.2754302347</v>
       </c>
       <c r="L6" t="n">
-        <v>255620.3468762164</v>
+        <v>255620.3468762166</v>
       </c>
       <c r="M6" t="n">
-        <v>249560.7202863387</v>
+        <v>249560.7202863386</v>
       </c>
       <c r="N6" t="n">
-        <v>347051.2868182234</v>
+        <v>347051.2868182232</v>
       </c>
       <c r="O6" t="n">
-        <v>314378.4416011469</v>
+        <v>314377.6035503339</v>
       </c>
       <c r="P6" t="n">
-        <v>346820.1744594779</v>
+        <v>346819.3364086646</v>
       </c>
     </row>
   </sheetData>
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>130.9642142643074</v>
+      </c>
+      <c r="F3" t="n">
         <v>130.9642142643073</v>
       </c>
-      <c r="F3" t="n">
-        <v>130.9642142643075</v>
-      </c>
       <c r="G3" t="n">
-        <v>130.9642142643075</v>
+        <v>130.9642142643074</v>
       </c>
       <c r="H3" t="n">
-        <v>130.9642142643075</v>
+        <v>130.9642142643074</v>
       </c>
       <c r="I3" t="n">
-        <v>130.9642142643075</v>
+        <v>130.9642142643074</v>
       </c>
       <c r="J3" t="n">
-        <v>130.9642142643075</v>
+        <v>130.9642142643074</v>
       </c>
       <c r="K3" t="n">
         <v>130.9642142643075</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576179</v>
       </c>
       <c r="F4" t="n">
         <v>426.254667257618</v>
@@ -26805,7 +26805,7 @@
         <v>426.254667257618</v>
       </c>
       <c r="H4" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576179</v>
       </c>
       <c r="I4" t="n">
         <v>426.254667257618</v>
@@ -26823,13 +26823,13 @@
         <v>426.254667257618</v>
       </c>
       <c r="N4" t="n">
-        <v>426.2546672576179</v>
+        <v>426.254667257618</v>
       </c>
       <c r="O4" t="n">
-        <v>433.0833406895455</v>
+        <v>433.0833406895458</v>
       </c>
       <c r="P4" t="n">
-        <v>433.0833406895455</v>
+        <v>433.0833406895458</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>122.1873351169202</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.776717873373372e-14</v>
       </c>
       <c r="G2" t="n">
         <v>101.0324106925222</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.057342749752</v>
+        <v>41.05734274975201</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.0324106925222</v>
+        <v>101.0324106925221</v>
       </c>
       <c r="M2" t="n">
         <v>81.12999236716828</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.49800721032994</v>
+        <v>38.49800721032996</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>130.9642142643073</v>
+        <v>130.9642142643074</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>130.762638794522</v>
+        <v>130.7626387945219</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.828673431927598</v>
+        <v>6.828673431927768</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>122.1873351169202</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.776717873373372e-14</v>
       </c>
       <c r="L2" t="n">
         <v>101.0324106925222</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.057342749752</v>
+        <v>41.05734274975201</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28166,16 +28166,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>122.1873351169202</v>
+        <v>6.104012086724026</v>
       </c>
       <c r="C12" t="n">
-        <v>122.1873351169202</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>122.1873351169202</v>
       </c>
       <c r="E12" t="n">
-        <v>122.1873351169202</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>122.1873351169202</v>
@@ -28184,10 +28184,10 @@
         <v>122.1873351169202</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.7419192975101</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.80477854118098</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,22 +28214,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.20507959952957</v>
+        <v>77.20507959952955</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>122.1873351169202</v>
       </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>122.1873351169202</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>122.1873351169202</v>
       </c>
       <c r="W12" t="n">
-        <v>68.46337480849482</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28403,13 +28403,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>122.1873351169202</v>
+        <v>83.30909168625323</v>
       </c>
       <c r="C15" t="n">
         <v>122.1873351169202</v>
       </c>
       <c r="D15" t="n">
-        <v>113.845931384234</v>
+        <v>122.1873351169202</v>
       </c>
       <c r="E15" t="n">
         <v>122.1873351169202</v>
@@ -28418,13 +28418,13 @@
         <v>122.1873351169202</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>122.1873351169202</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.7419192975101</v>
       </c>
       <c r="I15" t="n">
-        <v>76.80477854118097</v>
+        <v>76.80477854118098</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.20507959952954</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>122.1873351169202</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>122.1873351169202</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28652,16 +28652,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>41.89304213036816</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.7419192975101</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.80477854118098</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.20507959952954</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28703,10 +28703,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>223.2197458094424</v>
+        <v>96.81577217571984</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
         <v>203.671151418586</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>59.98510352193775</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>162.7723115427124</v>
@@ -28776,13 +28776,13 @@
         <v>223.2197458094424</v>
       </c>
       <c r="U19" t="n">
-        <v>27.50074626466983</v>
+        <v>223.2197458094424</v>
       </c>
       <c r="V19" t="n">
         <v>223.2197458094424</v>
       </c>
       <c r="W19" t="n">
-        <v>223.2197458094424</v>
+        <v>87.48584978660759</v>
       </c>
       <c r="X19" t="n">
         <v>223.2197458094424</v>
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>9.329257065285134</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>135.7415135932285</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.7419192975101</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>76.80477854118098</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28937,16 +28937,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>223.2197458094424</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>104.1913123971037</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>59.98510352193775</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>162.7723115427124</v>
       </c>
       <c r="S22" t="n">
-        <v>22.52269596181918</v>
+        <v>218.2416955065918</v>
       </c>
       <c r="T22" t="n">
         <v>223.2197458094424</v>
@@ -29016,7 +29016,7 @@
         <v>223.2197458094424</v>
       </c>
       <c r="V22" t="n">
-        <v>223.2197458094424</v>
+        <v>87.48584978660759</v>
       </c>
       <c r="W22" t="n">
         <v>223.2197458094424</v>
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>76.80477854118097</v>
+        <v>76.80477854118098</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,25 +29162,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.20507959952954</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>163.7292228923487</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.2470968808262</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>40.34153294721153</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>223.2197458094424</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>65.01790054737336</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29247,7 +29247,7 @@
         <v>218.2416955065918</v>
       </c>
       <c r="T25" t="n">
-        <v>223.2197458094424</v>
+        <v>27.50074626466983</v>
       </c>
       <c r="U25" t="n">
         <v>223.2197458094424</v>
@@ -29262,7 +29262,7 @@
         <v>223.2197458094424</v>
       </c>
       <c r="Y25" t="n">
-        <v>23.0296743229957</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>142.0897534422742</v>
       </c>
       <c r="J26" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422732</v>
       </c>
       <c r="K26" t="n">
         <v>142.0897534422742</v>
@@ -29311,7 +29311,7 @@
         <v>142.0897534422742</v>
       </c>
       <c r="O26" t="n">
-        <v>142.0897534422734</v>
+        <v>142.0897534422742</v>
       </c>
       <c r="P26" t="n">
         <v>142.0897534422742</v>
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>131.9065674405282</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29363,16 +29363,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>142.0897534422742</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7415135932285</v>
       </c>
       <c r="H27" t="n">
         <v>107.7419192975101</v>
       </c>
       <c r="I27" t="n">
-        <v>76.80477854118097</v>
+        <v>76.80477854118098</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29414,13 +29414,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
         <v>142.0897534422742</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>125.5583275914826</v>
       </c>
     </row>
     <row r="28">
@@ -29457,22 +29457,22 @@
         <v>142.0897534422742</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>142.0897534422742</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>84.23537861850083</v>
-      </c>
       <c r="O28" t="n">
+        <v>84.23537861850041</v>
+      </c>
+      <c r="P28" t="n">
         <v>142.0897534422742</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>142.0897534422742</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48.35324799195301</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -29597,13 +29597,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>131.9065674405283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.7415135932285</v>
       </c>
       <c r="H30" t="n">
         <v>107.7419192975101</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.20507959952954</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29645,7 +29645,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>142.0897534422741</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>142.0897534422741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29691,10 +29691,10 @@
         <v>142.0897534422741</v>
       </c>
       <c r="J31" t="n">
-        <v>142.0897534422741</v>
+        <v>72.14198108624583</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>94.19804745259269</v>
       </c>
       <c r="L31" t="n">
         <v>142.0897534422741</v>
@@ -29703,13 +29703,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>142.0897534422741</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>142.0897534422741</v>
       </c>
       <c r="P31" t="n">
-        <v>24.25027509656444</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="Q31" t="n">
         <v>59.98510352193775</v>
@@ -29770,7 +29770,7 @@
         <v>142.0897534422741</v>
       </c>
       <c r="J32" t="n">
-        <v>142.0897534422741</v>
+        <v>142.0897534422737</v>
       </c>
       <c r="K32" t="n">
         <v>142.0897534422741</v>
@@ -29779,7 +29779,7 @@
         <v>142.0897534422741</v>
       </c>
       <c r="M32" t="n">
-        <v>142.0897534422739</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="N32" t="n">
         <v>142.0897534422741</v>
@@ -29834,19 +29834,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>48.353247991953</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>25.9255185456252</v>
+        <v>107.7419192975101</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>76.80477854118097</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,13 +29873,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>77.20507959952954</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="T33" t="n">
-        <v>142.0897534422741</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29888,13 +29888,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>142.0897534422741</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>142.0897534422741</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>142.0897534422741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29928,22 +29928,22 @@
         <v>142.0897534422741</v>
       </c>
       <c r="J34" t="n">
+        <v>72.14198108624583</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
         <v>142.0897534422741</v>
       </c>
-      <c r="K34" t="n">
+      <c r="N34" t="n">
+        <v>12.09339753225684</v>
+      </c>
+      <c r="O34" t="n">
         <v>142.0897534422741</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>84.23537861850278</v>
       </c>
       <c r="P34" t="n">
         <v>142.0897534422741</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>108.7787389851774</v>
+        <v>108.7787389851773</v>
       </c>
       <c r="S35" t="n">
         <v>193.8675767183215</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>171.025583927401</v>
@@ -30071,7 +30071,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30080,7 +30080,7 @@
         <v>135.7415135932285</v>
       </c>
       <c r="H36" t="n">
-        <v>25.14490132628202</v>
+        <v>107.7419192975101</v>
       </c>
       <c r="I36" t="n">
         <v>76.80477854118097</v>
@@ -30110,19 +30110,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>77.20507959952954</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>163.7292228923487</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>112.6982686680931</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>223.2197458094424</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30156,10 +30156,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.6534239535659</v>
       </c>
       <c r="H37" t="n">
-        <v>131.468775080817</v>
+        <v>159.5343506720235</v>
       </c>
       <c r="I37" t="n">
         <v>146.6564218664802</v>
@@ -30207,7 +30207,7 @@
         <v>223.2197458094424</v>
       </c>
       <c r="X37" t="n">
-        <v>223.2197458094424</v>
+        <v>27.50074626466977</v>
       </c>
       <c r="Y37" t="n">
         <v>218.7486738677682</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>108.7787389851774</v>
+        <v>108.7787389851773</v>
       </c>
       <c r="S38" t="n">
         <v>193.8675767183215</v>
@@ -30302,7 +30302,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -30311,10 +30311,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>35.23880394914059</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.7415135932285</v>
       </c>
       <c r="H39" t="n">
         <v>107.7419192975101</v>
@@ -30356,13 +30356,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>150.2363880092058</v>
       </c>
       <c r="V39" t="n">
         <v>223.2197458094424</v>
       </c>
       <c r="W39" t="n">
-        <v>223.2197458094424</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30387,7 +30387,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
         <v>146.1590214098045</v>
@@ -30432,7 +30432,7 @@
         <v>218.2416955065918</v>
       </c>
       <c r="T40" t="n">
-        <v>223.2197458094424</v>
+        <v>27.50074626466983</v>
       </c>
       <c r="U40" t="n">
         <v>223.2197458094424</v>
@@ -30441,7 +30441,7 @@
         <v>223.2197458094424</v>
       </c>
       <c r="W40" t="n">
-        <v>174.4753704378691</v>
+        <v>223.2197458094424</v>
       </c>
       <c r="X40" t="n">
         <v>223.2197458094424</v>
@@ -30487,10 +30487,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>27.03878773046074</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>27.03878773046125</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>108.7787389851774</v>
+        <v>108.7787389851773</v>
       </c>
       <c r="S41" t="n">
         <v>193.8675767183215</v>
@@ -30539,19 +30539,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>118.7432522223991</v>
       </c>
       <c r="H42" t="n">
         <v>107.7419192975101</v>
@@ -30584,16 +30584,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.20507959952954</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>9.556763551209087</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>220.6604102700203</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>59.98510352193775</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>162.7723115427124</v>
@@ -30669,7 +30669,7 @@
         <v>218.2416955065918</v>
       </c>
       <c r="T43" t="n">
-        <v>37.73808842235817</v>
+        <v>220.6604102700203</v>
       </c>
       <c r="U43" t="n">
         <v>220.6604102700203</v>
@@ -30684,7 +30684,7 @@
         <v>220.6604102700203</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.7486738677682</v>
+        <v>95.8114555420437</v>
       </c>
     </row>
     <row r="44">
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>27.03878773046063</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108.7787389851774</v>
+        <v>135.8175267156387</v>
       </c>
       <c r="S44" t="n">
         <v>193.8675767183215</v>
@@ -30773,25 +30773,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>80.68596630251169</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.7415135932285</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.7419192975101</v>
       </c>
       <c r="I45" t="n">
         <v>76.80477854118097</v>
@@ -30827,22 +30827,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.2470968808262</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>220.6604102700204</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>220.6604102700204</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>115.6001563262437</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
@@ -30903,7 +30903,7 @@
         <v>162.7723115427124</v>
       </c>
       <c r="S46" t="n">
-        <v>218.2416955065918</v>
+        <v>35.31937365892921</v>
       </c>
       <c r="T46" t="n">
         <v>220.6604102700204</v>
@@ -30921,7 +30921,7 @@
         <v>220.6604102700204</v>
       </c>
       <c r="Y46" t="n">
-        <v>215.9100435107895</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5264893035751043</v>
+        <v>0.5264893035751048</v>
       </c>
       <c r="H11" t="n">
-        <v>5.391908580238538</v>
+        <v>5.391908580238544</v>
       </c>
       <c r="I11" t="n">
-        <v>20.29747887607923</v>
+        <v>20.29747887607925</v>
       </c>
       <c r="J11" t="n">
-        <v>44.68512152930754</v>
+        <v>44.68512152930759</v>
       </c>
       <c r="K11" t="n">
-        <v>66.97141374964173</v>
+        <v>66.9714137496418</v>
       </c>
       <c r="L11" t="n">
-        <v>83.08396077392834</v>
+        <v>83.08396077392842</v>
       </c>
       <c r="M11" t="n">
-        <v>92.44691492638209</v>
+        <v>92.44691492638219</v>
       </c>
       <c r="N11" t="n">
-        <v>93.94280266016487</v>
+        <v>93.94280266016497</v>
       </c>
       <c r="O11" t="n">
-        <v>88.70752464773992</v>
+        <v>88.70752464774002</v>
       </c>
       <c r="P11" t="n">
-        <v>75.70981996572952</v>
+        <v>75.70981996572961</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.85492178144608</v>
+        <v>56.85492178144614</v>
       </c>
       <c r="R11" t="n">
-        <v>33.07208371569968</v>
+        <v>33.07208371569971</v>
       </c>
       <c r="S11" t="n">
-        <v>11.9973750052177</v>
+        <v>11.99737500521771</v>
       </c>
       <c r="T11" t="n">
-        <v>2.30470692640002</v>
+        <v>2.304706926400023</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04211914428600833</v>
+        <v>0.04211914428600838</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.281696611813793</v>
+        <v>0.2816966118137934</v>
       </c>
       <c r="H12" t="n">
-        <v>2.720596224622686</v>
+        <v>2.720596224622689</v>
       </c>
       <c r="I12" t="n">
-        <v>9.698764924290682</v>
+        <v>9.698764924290693</v>
       </c>
       <c r="J12" t="n">
-        <v>26.61415225912683</v>
+        <v>26.61415225912686</v>
       </c>
       <c r="K12" t="n">
-        <v>45.48782525065096</v>
+        <v>45.48782525065101</v>
       </c>
       <c r="L12" t="n">
-        <v>61.16399459579748</v>
+        <v>61.16399459579755</v>
       </c>
       <c r="M12" t="n">
-        <v>71.37549677404746</v>
+        <v>71.37549677404753</v>
       </c>
       <c r="N12" t="n">
-        <v>73.26459378923734</v>
+        <v>73.26459378923742</v>
       </c>
       <c r="O12" t="n">
-        <v>67.02278991694224</v>
+        <v>67.02278991694232</v>
       </c>
       <c r="P12" t="n">
-        <v>53.79169774188124</v>
+        <v>53.7916977418813</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.95832539573962</v>
+        <v>35.95832539573966</v>
       </c>
       <c r="R12" t="n">
-        <v>17.48990016156165</v>
+        <v>17.48990016156167</v>
       </c>
       <c r="S12" t="n">
-        <v>5.23239101329567</v>
+        <v>5.232391013295675</v>
       </c>
       <c r="T12" t="n">
-        <v>1.135435027442437</v>
+        <v>1.135435027442439</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01853267182985481</v>
+        <v>0.01853267182985483</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2361649765421934</v>
+        <v>0.2361649765421937</v>
       </c>
       <c r="H13" t="n">
-        <v>2.099721336893321</v>
+        <v>2.099721336893324</v>
       </c>
       <c r="I13" t="n">
-        <v>7.10212493092342</v>
+        <v>7.102124930923427</v>
       </c>
       <c r="J13" t="n">
-        <v>16.69686384153308</v>
+        <v>16.69686384153309</v>
       </c>
       <c r="K13" t="n">
-        <v>27.43807636553847</v>
+        <v>27.4380763655385</v>
       </c>
       <c r="L13" t="n">
-        <v>35.11129114882757</v>
+        <v>35.1112911488276</v>
       </c>
       <c r="M13" t="n">
-        <v>37.01993355015492</v>
+        <v>37.01993355015496</v>
       </c>
       <c r="N13" t="n">
-        <v>36.13968227395222</v>
+        <v>36.13968227395227</v>
       </c>
       <c r="O13" t="n">
-        <v>33.38084595707296</v>
+        <v>33.38084595707299</v>
       </c>
       <c r="P13" t="n">
-        <v>28.56308043561219</v>
+        <v>28.56308043561221</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.7755963539104</v>
+        <v>19.77559635391042</v>
       </c>
       <c r="R13" t="n">
-        <v>10.6188361270699</v>
+        <v>10.61883612706991</v>
       </c>
       <c r="S13" t="n">
-        <v>4.11571145483077</v>
+        <v>4.115711454830774</v>
       </c>
       <c r="T13" t="n">
-        <v>1.009068536134826</v>
+        <v>1.009068536134827</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01288172599321057</v>
+        <v>0.01288172599321058</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5264893035751049</v>
+        <v>0.5264893035751043</v>
       </c>
       <c r="H14" t="n">
-        <v>5.391908580238545</v>
+        <v>5.391908580238538</v>
       </c>
       <c r="I14" t="n">
-        <v>20.29747887607925</v>
+        <v>20.29747887607923</v>
       </c>
       <c r="J14" t="n">
-        <v>44.68512152930761</v>
+        <v>44.68512152930754</v>
       </c>
       <c r="K14" t="n">
-        <v>66.97141374964181</v>
+        <v>66.97141374964173</v>
       </c>
       <c r="L14" t="n">
-        <v>83.08396077392845</v>
+        <v>83.08396077392834</v>
       </c>
       <c r="M14" t="n">
-        <v>92.44691492638222</v>
+        <v>92.44691492638209</v>
       </c>
       <c r="N14" t="n">
-        <v>93.94280266016499</v>
+        <v>93.94280266016487</v>
       </c>
       <c r="O14" t="n">
-        <v>88.70752464774003</v>
+        <v>88.70752464773992</v>
       </c>
       <c r="P14" t="n">
-        <v>75.70981996572962</v>
+        <v>75.70981996572952</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.85492178144616</v>
+        <v>56.85492178144608</v>
       </c>
       <c r="R14" t="n">
-        <v>33.07208371569972</v>
+        <v>33.07208371569968</v>
       </c>
       <c r="S14" t="n">
-        <v>11.99737500521772</v>
+        <v>11.9973750052177</v>
       </c>
       <c r="T14" t="n">
-        <v>2.304706926400023</v>
+        <v>2.30470692640002</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04211914428600839</v>
+        <v>0.04211914428600833</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2816966118137934</v>
+        <v>0.281696611813793</v>
       </c>
       <c r="H15" t="n">
-        <v>2.720596224622689</v>
+        <v>2.720596224622686</v>
       </c>
       <c r="I15" t="n">
-        <v>9.698764924290696</v>
+        <v>9.698764924290682</v>
       </c>
       <c r="J15" t="n">
-        <v>26.61415225912686</v>
+        <v>26.61415225912683</v>
       </c>
       <c r="K15" t="n">
-        <v>45.48782525065102</v>
+        <v>45.48782525065096</v>
       </c>
       <c r="L15" t="n">
-        <v>61.16399459579756</v>
+        <v>61.16399459579748</v>
       </c>
       <c r="M15" t="n">
-        <v>71.37549677404756</v>
+        <v>71.37549677404746</v>
       </c>
       <c r="N15" t="n">
-        <v>73.26459378923744</v>
+        <v>73.26459378923734</v>
       </c>
       <c r="O15" t="n">
-        <v>67.02278991694233</v>
+        <v>67.02278991694224</v>
       </c>
       <c r="P15" t="n">
-        <v>53.79169774188131</v>
+        <v>53.79169774188124</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.95832539573966</v>
+        <v>35.95832539573962</v>
       </c>
       <c r="R15" t="n">
-        <v>17.48990016156167</v>
+        <v>17.48990016156165</v>
       </c>
       <c r="S15" t="n">
-        <v>5.232391013295676</v>
+        <v>5.23239101329567</v>
       </c>
       <c r="T15" t="n">
-        <v>1.135435027442439</v>
+        <v>1.135435027442437</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01853267182985484</v>
+        <v>0.01853267182985481</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2361649765421938</v>
+        <v>0.2361649765421934</v>
       </c>
       <c r="H16" t="n">
-        <v>2.099721336893324</v>
+        <v>2.099721336893321</v>
       </c>
       <c r="I16" t="n">
-        <v>7.102124930923429</v>
+        <v>7.10212493092342</v>
       </c>
       <c r="J16" t="n">
-        <v>16.6968638415331</v>
+        <v>16.69686384153308</v>
       </c>
       <c r="K16" t="n">
-        <v>27.4380763655385</v>
+        <v>27.43807636553847</v>
       </c>
       <c r="L16" t="n">
-        <v>35.11129114882761</v>
+        <v>35.11129114882757</v>
       </c>
       <c r="M16" t="n">
-        <v>37.01993355015497</v>
+        <v>37.01993355015492</v>
       </c>
       <c r="N16" t="n">
-        <v>36.13968227395227</v>
+        <v>36.13968227395222</v>
       </c>
       <c r="O16" t="n">
-        <v>33.380845957073</v>
+        <v>33.38084595707296</v>
       </c>
       <c r="P16" t="n">
-        <v>28.56308043561222</v>
+        <v>28.56308043561219</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.77559635391043</v>
+        <v>19.7755963539104</v>
       </c>
       <c r="R16" t="n">
-        <v>10.61883612706991</v>
+        <v>10.6188361270699</v>
       </c>
       <c r="S16" t="n">
-        <v>4.115711454830775</v>
+        <v>4.11571145483077</v>
       </c>
       <c r="T16" t="n">
-        <v>1.009068536134827</v>
+        <v>1.009068536134826</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01288172599321058</v>
+        <v>0.01288172599321057</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5264893035751049</v>
+        <v>0.5264893035751048</v>
       </c>
       <c r="H17" t="n">
-        <v>5.391908580238545</v>
+        <v>5.391908580238544</v>
       </c>
       <c r="I17" t="n">
         <v>20.29747887607925</v>
       </c>
       <c r="J17" t="n">
-        <v>44.68512152930761</v>
+        <v>44.68512152930759</v>
       </c>
       <c r="K17" t="n">
-        <v>66.97141374964181</v>
+        <v>66.9714137496418</v>
       </c>
       <c r="L17" t="n">
-        <v>83.08396077392845</v>
+        <v>83.08396077392842</v>
       </c>
       <c r="M17" t="n">
-        <v>92.44691492638222</v>
+        <v>92.44691492638219</v>
       </c>
       <c r="N17" t="n">
-        <v>93.94280266016499</v>
+        <v>93.94280266016497</v>
       </c>
       <c r="O17" t="n">
-        <v>88.70752464774003</v>
+        <v>88.70752464774002</v>
       </c>
       <c r="P17" t="n">
-        <v>75.70981996572962</v>
+        <v>75.70981996572961</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.85492178144616</v>
+        <v>56.85492178144614</v>
       </c>
       <c r="R17" t="n">
-        <v>33.07208371569972</v>
+        <v>33.07208371569971</v>
       </c>
       <c r="S17" t="n">
-        <v>11.99737500521772</v>
+        <v>11.99737500521771</v>
       </c>
       <c r="T17" t="n">
         <v>2.304706926400023</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04211914428600839</v>
+        <v>0.04211914428600838</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,28 +32309,28 @@
         <v>2.720596224622689</v>
       </c>
       <c r="I18" t="n">
-        <v>9.698764924290696</v>
+        <v>9.698764924290693</v>
       </c>
       <c r="J18" t="n">
         <v>26.61415225912686</v>
       </c>
       <c r="K18" t="n">
-        <v>45.48782525065102</v>
+        <v>45.48782525065101</v>
       </c>
       <c r="L18" t="n">
-        <v>61.16399459579756</v>
+        <v>61.16399459579755</v>
       </c>
       <c r="M18" t="n">
-        <v>71.37549677404756</v>
+        <v>71.37549677404753</v>
       </c>
       <c r="N18" t="n">
-        <v>73.26459378923744</v>
+        <v>73.26459378923742</v>
       </c>
       <c r="O18" t="n">
-        <v>67.02278991694233</v>
+        <v>67.02278991694232</v>
       </c>
       <c r="P18" t="n">
-        <v>53.79169774188131</v>
+        <v>53.7916977418813</v>
       </c>
       <c r="Q18" t="n">
         <v>35.95832539573966</v>
@@ -32339,13 +32339,13 @@
         <v>17.48990016156167</v>
       </c>
       <c r="S18" t="n">
-        <v>5.232391013295676</v>
+        <v>5.232391013295675</v>
       </c>
       <c r="T18" t="n">
         <v>1.135435027442439</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01853267182985484</v>
+        <v>0.01853267182985483</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,43 +32382,43 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2361649765421938</v>
+        <v>0.2361649765421937</v>
       </c>
       <c r="H19" t="n">
         <v>2.099721336893324</v>
       </c>
       <c r="I19" t="n">
-        <v>7.102124930923429</v>
+        <v>7.102124930923427</v>
       </c>
       <c r="J19" t="n">
-        <v>16.6968638415331</v>
+        <v>16.69686384153309</v>
       </c>
       <c r="K19" t="n">
         <v>27.4380763655385</v>
       </c>
       <c r="L19" t="n">
-        <v>35.11129114882761</v>
+        <v>35.1112911488276</v>
       </c>
       <c r="M19" t="n">
-        <v>37.01993355015497</v>
+        <v>37.01993355015496</v>
       </c>
       <c r="N19" t="n">
         <v>36.13968227395227</v>
       </c>
       <c r="O19" t="n">
-        <v>33.380845957073</v>
+        <v>33.38084595707299</v>
       </c>
       <c r="P19" t="n">
-        <v>28.56308043561222</v>
+        <v>28.56308043561221</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.77559635391043</v>
+        <v>19.77559635391042</v>
       </c>
       <c r="R19" t="n">
         <v>10.61883612706991</v>
       </c>
       <c r="S19" t="n">
-        <v>4.115711454830775</v>
+        <v>4.115711454830774</v>
       </c>
       <c r="T19" t="n">
         <v>1.009068536134827</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5264893035751049</v>
+        <v>0.5264893035751048</v>
       </c>
       <c r="H20" t="n">
-        <v>5.391908580238545</v>
+        <v>5.391908580238544</v>
       </c>
       <c r="I20" t="n">
         <v>20.29747887607925</v>
       </c>
       <c r="J20" t="n">
-        <v>44.68512152930761</v>
+        <v>44.68512152930759</v>
       </c>
       <c r="K20" t="n">
-        <v>66.97141374964181</v>
+        <v>66.9714137496418</v>
       </c>
       <c r="L20" t="n">
-        <v>83.08396077392845</v>
+        <v>83.08396077392842</v>
       </c>
       <c r="M20" t="n">
-        <v>92.44691492638222</v>
+        <v>92.44691492638219</v>
       </c>
       <c r="N20" t="n">
-        <v>93.94280266016499</v>
+        <v>93.94280266016497</v>
       </c>
       <c r="O20" t="n">
-        <v>88.70752464774003</v>
+        <v>88.70752464774002</v>
       </c>
       <c r="P20" t="n">
-        <v>75.70981996572962</v>
+        <v>75.70981996572961</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.85492178144616</v>
+        <v>56.85492178144614</v>
       </c>
       <c r="R20" t="n">
-        <v>33.07208371569972</v>
+        <v>33.07208371569971</v>
       </c>
       <c r="S20" t="n">
-        <v>11.99737500521772</v>
+        <v>11.99737500521771</v>
       </c>
       <c r="T20" t="n">
         <v>2.304706926400023</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04211914428600839</v>
+        <v>0.04211914428600838</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,28 +32546,28 @@
         <v>2.720596224622689</v>
       </c>
       <c r="I21" t="n">
-        <v>9.698764924290696</v>
+        <v>9.698764924290693</v>
       </c>
       <c r="J21" t="n">
         <v>26.61415225912686</v>
       </c>
       <c r="K21" t="n">
-        <v>45.48782525065102</v>
+        <v>45.48782525065101</v>
       </c>
       <c r="L21" t="n">
-        <v>61.16399459579756</v>
+        <v>61.16399459579755</v>
       </c>
       <c r="M21" t="n">
-        <v>71.37549677404756</v>
+        <v>71.37549677404753</v>
       </c>
       <c r="N21" t="n">
-        <v>73.26459378923744</v>
+        <v>73.26459378923742</v>
       </c>
       <c r="O21" t="n">
-        <v>67.02278991694233</v>
+        <v>67.02278991694232</v>
       </c>
       <c r="P21" t="n">
-        <v>53.79169774188131</v>
+        <v>53.7916977418813</v>
       </c>
       <c r="Q21" t="n">
         <v>35.95832539573966</v>
@@ -32576,13 +32576,13 @@
         <v>17.48990016156167</v>
       </c>
       <c r="S21" t="n">
-        <v>5.232391013295676</v>
+        <v>5.232391013295675</v>
       </c>
       <c r="T21" t="n">
         <v>1.135435027442439</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01853267182985484</v>
+        <v>0.01853267182985483</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,43 +32619,43 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2361649765421938</v>
+        <v>0.2361649765421937</v>
       </c>
       <c r="H22" t="n">
         <v>2.099721336893324</v>
       </c>
       <c r="I22" t="n">
-        <v>7.102124930923429</v>
+        <v>7.102124930923427</v>
       </c>
       <c r="J22" t="n">
-        <v>16.6968638415331</v>
+        <v>16.69686384153309</v>
       </c>
       <c r="K22" t="n">
         <v>27.4380763655385</v>
       </c>
       <c r="L22" t="n">
-        <v>35.11129114882761</v>
+        <v>35.1112911488276</v>
       </c>
       <c r="M22" t="n">
-        <v>37.01993355015497</v>
+        <v>37.01993355015496</v>
       </c>
       <c r="N22" t="n">
         <v>36.13968227395227</v>
       </c>
       <c r="O22" t="n">
-        <v>33.380845957073</v>
+        <v>33.38084595707299</v>
       </c>
       <c r="P22" t="n">
-        <v>28.56308043561222</v>
+        <v>28.56308043561221</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.77559635391043</v>
+        <v>19.77559635391042</v>
       </c>
       <c r="R22" t="n">
         <v>10.61883612706991</v>
       </c>
       <c r="S22" t="n">
-        <v>4.115711454830775</v>
+        <v>4.115711454830774</v>
       </c>
       <c r="T22" t="n">
         <v>1.009068536134827</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5264893035751049</v>
+        <v>0.5264893035751048</v>
       </c>
       <c r="H23" t="n">
-        <v>5.391908580238545</v>
+        <v>5.391908580238544</v>
       </c>
       <c r="I23" t="n">
         <v>20.29747887607925</v>
       </c>
       <c r="J23" t="n">
-        <v>44.68512152930761</v>
+        <v>44.68512152930759</v>
       </c>
       <c r="K23" t="n">
-        <v>66.97141374964181</v>
+        <v>66.9714137496418</v>
       </c>
       <c r="L23" t="n">
-        <v>83.08396077392845</v>
+        <v>83.08396077392842</v>
       </c>
       <c r="M23" t="n">
-        <v>92.44691492638222</v>
+        <v>92.44691492638219</v>
       </c>
       <c r="N23" t="n">
-        <v>93.94280266016499</v>
+        <v>93.94280266016497</v>
       </c>
       <c r="O23" t="n">
-        <v>88.70752464774003</v>
+        <v>88.70752464774002</v>
       </c>
       <c r="P23" t="n">
-        <v>75.70981996572962</v>
+        <v>75.70981996572961</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.85492178144616</v>
+        <v>56.85492178144614</v>
       </c>
       <c r="R23" t="n">
-        <v>33.07208371569972</v>
+        <v>33.07208371569971</v>
       </c>
       <c r="S23" t="n">
-        <v>11.99737500521772</v>
+        <v>11.99737500521771</v>
       </c>
       <c r="T23" t="n">
         <v>2.304706926400023</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04211914428600839</v>
+        <v>0.04211914428600838</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,28 +32783,28 @@
         <v>2.720596224622689</v>
       </c>
       <c r="I24" t="n">
-        <v>9.698764924290696</v>
+        <v>9.698764924290693</v>
       </c>
       <c r="J24" t="n">
         <v>26.61415225912686</v>
       </c>
       <c r="K24" t="n">
-        <v>45.48782525065102</v>
+        <v>45.48782525065101</v>
       </c>
       <c r="L24" t="n">
-        <v>61.16399459579756</v>
+        <v>61.16399459579755</v>
       </c>
       <c r="M24" t="n">
-        <v>71.37549677404756</v>
+        <v>71.37549677404753</v>
       </c>
       <c r="N24" t="n">
-        <v>73.26459378923744</v>
+        <v>73.26459378923742</v>
       </c>
       <c r="O24" t="n">
-        <v>67.02278991694233</v>
+        <v>67.02278991694232</v>
       </c>
       <c r="P24" t="n">
-        <v>53.79169774188131</v>
+        <v>53.7916977418813</v>
       </c>
       <c r="Q24" t="n">
         <v>35.95832539573966</v>
@@ -32813,13 +32813,13 @@
         <v>17.48990016156167</v>
       </c>
       <c r="S24" t="n">
-        <v>5.232391013295676</v>
+        <v>5.232391013295675</v>
       </c>
       <c r="T24" t="n">
         <v>1.135435027442439</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01853267182985484</v>
+        <v>0.01853267182985483</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,43 +32856,43 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2361649765421938</v>
+        <v>0.2361649765421937</v>
       </c>
       <c r="H25" t="n">
         <v>2.099721336893324</v>
       </c>
       <c r="I25" t="n">
-        <v>7.102124930923429</v>
+        <v>7.102124930923427</v>
       </c>
       <c r="J25" t="n">
-        <v>16.6968638415331</v>
+        <v>16.69686384153309</v>
       </c>
       <c r="K25" t="n">
         <v>27.4380763655385</v>
       </c>
       <c r="L25" t="n">
-        <v>35.11129114882761</v>
+        <v>35.1112911488276</v>
       </c>
       <c r="M25" t="n">
-        <v>37.01993355015497</v>
+        <v>37.01993355015496</v>
       </c>
       <c r="N25" t="n">
         <v>36.13968227395227</v>
       </c>
       <c r="O25" t="n">
-        <v>33.380845957073</v>
+        <v>33.38084595707299</v>
       </c>
       <c r="P25" t="n">
-        <v>28.56308043561222</v>
+        <v>28.56308043561221</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.77559635391043</v>
+        <v>19.77559635391042</v>
       </c>
       <c r="R25" t="n">
         <v>10.61883612706991</v>
       </c>
       <c r="S25" t="n">
-        <v>4.115711454830775</v>
+        <v>4.115711454830774</v>
       </c>
       <c r="T25" t="n">
         <v>1.009068536134827</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5264893035751049</v>
+        <v>0.5264893035751048</v>
       </c>
       <c r="H26" t="n">
-        <v>5.391908580238545</v>
+        <v>5.391908580238544</v>
       </c>
       <c r="I26" t="n">
         <v>20.29747887607925</v>
       </c>
       <c r="J26" t="n">
-        <v>44.68512152930761</v>
+        <v>44.68512152930759</v>
       </c>
       <c r="K26" t="n">
-        <v>66.97141374964181</v>
+        <v>66.9714137496418</v>
       </c>
       <c r="L26" t="n">
-        <v>83.08396077392845</v>
+        <v>83.08396077392842</v>
       </c>
       <c r="M26" t="n">
-        <v>92.44691492638222</v>
+        <v>92.44691492638219</v>
       </c>
       <c r="N26" t="n">
-        <v>93.94280266016499</v>
+        <v>93.94280266016497</v>
       </c>
       <c r="O26" t="n">
-        <v>88.70752464774003</v>
+        <v>88.70752464774002</v>
       </c>
       <c r="P26" t="n">
-        <v>75.70981996572962</v>
+        <v>75.70981996572961</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.85492178144616</v>
+        <v>56.85492178144614</v>
       </c>
       <c r="R26" t="n">
-        <v>33.07208371569972</v>
+        <v>33.07208371569971</v>
       </c>
       <c r="S26" t="n">
-        <v>11.99737500521772</v>
+        <v>11.99737500521771</v>
       </c>
       <c r="T26" t="n">
         <v>2.304706926400023</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04211914428600839</v>
+        <v>0.04211914428600838</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,28 +33020,28 @@
         <v>2.720596224622689</v>
       </c>
       <c r="I27" t="n">
-        <v>9.698764924290696</v>
+        <v>9.698764924290693</v>
       </c>
       <c r="J27" t="n">
         <v>26.61415225912686</v>
       </c>
       <c r="K27" t="n">
-        <v>45.48782525065102</v>
+        <v>45.48782525065101</v>
       </c>
       <c r="L27" t="n">
-        <v>61.16399459579756</v>
+        <v>61.16399459579755</v>
       </c>
       <c r="M27" t="n">
-        <v>71.37549677404756</v>
+        <v>71.37549677404753</v>
       </c>
       <c r="N27" t="n">
-        <v>73.26459378923744</v>
+        <v>73.26459378923742</v>
       </c>
       <c r="O27" t="n">
-        <v>67.02278991694233</v>
+        <v>67.02278991694232</v>
       </c>
       <c r="P27" t="n">
-        <v>53.79169774188131</v>
+        <v>53.7916977418813</v>
       </c>
       <c r="Q27" t="n">
         <v>35.95832539573966</v>
@@ -33050,13 +33050,13 @@
         <v>17.48990016156167</v>
       </c>
       <c r="S27" t="n">
-        <v>5.232391013295676</v>
+        <v>5.232391013295675</v>
       </c>
       <c r="T27" t="n">
         <v>1.135435027442439</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01853267182985484</v>
+        <v>0.01853267182985483</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,43 +33093,43 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2361649765421938</v>
+        <v>0.2361649765421937</v>
       </c>
       <c r="H28" t="n">
         <v>2.099721336893324</v>
       </c>
       <c r="I28" t="n">
-        <v>7.102124930923429</v>
+        <v>7.102124930923427</v>
       </c>
       <c r="J28" t="n">
-        <v>16.6968638415331</v>
+        <v>16.69686384153309</v>
       </c>
       <c r="K28" t="n">
         <v>27.4380763655385</v>
       </c>
       <c r="L28" t="n">
-        <v>35.11129114882761</v>
+        <v>35.1112911488276</v>
       </c>
       <c r="M28" t="n">
-        <v>37.01993355015497</v>
+        <v>37.01993355015496</v>
       </c>
       <c r="N28" t="n">
         <v>36.13968227395227</v>
       </c>
       <c r="O28" t="n">
-        <v>33.380845957073</v>
+        <v>33.38084595707299</v>
       </c>
       <c r="P28" t="n">
-        <v>28.56308043561222</v>
+        <v>28.56308043561221</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.77559635391043</v>
+        <v>19.77559635391042</v>
       </c>
       <c r="R28" t="n">
         <v>10.61883612706991</v>
       </c>
       <c r="S28" t="n">
-        <v>4.115711454830775</v>
+        <v>4.115711454830774</v>
       </c>
       <c r="T28" t="n">
         <v>1.009068536134827</v>
@@ -33172,46 +33172,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5264893035751049</v>
+        <v>0.526489303575105</v>
       </c>
       <c r="H29" t="n">
-        <v>5.391908580238545</v>
+        <v>5.391908580238546</v>
       </c>
       <c r="I29" t="n">
-        <v>20.29747887607925</v>
+        <v>20.29747887607926</v>
       </c>
       <c r="J29" t="n">
-        <v>44.68512152930761</v>
+        <v>44.68512152930762</v>
       </c>
       <c r="K29" t="n">
-        <v>66.97141374964181</v>
+        <v>66.97141374964183</v>
       </c>
       <c r="L29" t="n">
-        <v>83.08396077392845</v>
+        <v>83.08396077392847</v>
       </c>
       <c r="M29" t="n">
-        <v>92.44691492638222</v>
+        <v>92.44691492638223</v>
       </c>
       <c r="N29" t="n">
-        <v>93.94280266016499</v>
+        <v>93.94280266016501</v>
       </c>
       <c r="O29" t="n">
-        <v>88.70752464774003</v>
+        <v>88.70752464774006</v>
       </c>
       <c r="P29" t="n">
-        <v>75.70981996572962</v>
+        <v>75.70981996572964</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.85492178144616</v>
+        <v>56.85492178144617</v>
       </c>
       <c r="R29" t="n">
-        <v>33.07208371569972</v>
+        <v>33.07208371569973</v>
       </c>
       <c r="S29" t="n">
         <v>11.99737500521772</v>
       </c>
       <c r="T29" t="n">
-        <v>2.304706926400023</v>
+        <v>2.304706926400024</v>
       </c>
       <c r="U29" t="n">
         <v>0.04211914428600839</v>
@@ -33251,43 +33251,43 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2816966118137934</v>
+        <v>0.2816966118137935</v>
       </c>
       <c r="H30" t="n">
-        <v>2.720596224622689</v>
+        <v>2.72059622462269</v>
       </c>
       <c r="I30" t="n">
-        <v>9.698764924290696</v>
+        <v>9.698764924290698</v>
       </c>
       <c r="J30" t="n">
-        <v>26.61415225912686</v>
+        <v>26.61415225912687</v>
       </c>
       <c r="K30" t="n">
-        <v>45.48782525065102</v>
+        <v>45.48782525065103</v>
       </c>
       <c r="L30" t="n">
-        <v>61.16399459579756</v>
+        <v>61.16399459579758</v>
       </c>
       <c r="M30" t="n">
-        <v>71.37549677404756</v>
+        <v>71.37549677404758</v>
       </c>
       <c r="N30" t="n">
-        <v>73.26459378923744</v>
+        <v>73.26459378923745</v>
       </c>
       <c r="O30" t="n">
-        <v>67.02278991694233</v>
+        <v>67.02278991694234</v>
       </c>
       <c r="P30" t="n">
-        <v>53.79169774188131</v>
+        <v>53.79169774188132</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.95832539573966</v>
+        <v>35.95832539573968</v>
       </c>
       <c r="R30" t="n">
         <v>17.48990016156167</v>
       </c>
       <c r="S30" t="n">
-        <v>5.232391013295676</v>
+        <v>5.232391013295678</v>
       </c>
       <c r="T30" t="n">
         <v>1.135435027442439</v>
@@ -33333,31 +33333,31 @@
         <v>0.2361649765421938</v>
       </c>
       <c r="H31" t="n">
-        <v>2.099721336893324</v>
+        <v>2.099721336893325</v>
       </c>
       <c r="I31" t="n">
-        <v>7.102124930923429</v>
+        <v>7.102124930923431</v>
       </c>
       <c r="J31" t="n">
         <v>16.6968638415331</v>
       </c>
       <c r="K31" t="n">
-        <v>27.4380763655385</v>
+        <v>27.43807636553851</v>
       </c>
       <c r="L31" t="n">
-        <v>35.11129114882761</v>
+        <v>35.11129114882762</v>
       </c>
       <c r="M31" t="n">
         <v>37.01993355015497</v>
       </c>
       <c r="N31" t="n">
-        <v>36.13968227395227</v>
+        <v>36.13968227395228</v>
       </c>
       <c r="O31" t="n">
-        <v>33.380845957073</v>
+        <v>33.38084595707301</v>
       </c>
       <c r="P31" t="n">
-        <v>28.56308043561222</v>
+        <v>28.56308043561223</v>
       </c>
       <c r="Q31" t="n">
         <v>19.77559635391043</v>
@@ -33366,13 +33366,13 @@
         <v>10.61883612706991</v>
       </c>
       <c r="S31" t="n">
-        <v>4.115711454830775</v>
+        <v>4.115711454830776</v>
       </c>
       <c r="T31" t="n">
-        <v>1.009068536134827</v>
+        <v>1.009068536134828</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01288172599321058</v>
+        <v>0.01288172599321059</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,46 +33409,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5264893035751049</v>
+        <v>0.526489303575105</v>
       </c>
       <c r="H32" t="n">
-        <v>5.391908580238545</v>
+        <v>5.391908580238546</v>
       </c>
       <c r="I32" t="n">
-        <v>20.29747887607925</v>
+        <v>20.29747887607926</v>
       </c>
       <c r="J32" t="n">
-        <v>44.68512152930761</v>
+        <v>44.68512152930762</v>
       </c>
       <c r="K32" t="n">
-        <v>66.97141374964181</v>
+        <v>66.97141374964183</v>
       </c>
       <c r="L32" t="n">
-        <v>83.08396077392845</v>
+        <v>83.08396077392847</v>
       </c>
       <c r="M32" t="n">
-        <v>92.44691492638222</v>
+        <v>92.44691492638223</v>
       </c>
       <c r="N32" t="n">
-        <v>93.94280266016499</v>
+        <v>93.94280266016501</v>
       </c>
       <c r="O32" t="n">
-        <v>88.70752464774003</v>
+        <v>88.70752464774006</v>
       </c>
       <c r="P32" t="n">
-        <v>75.70981996572962</v>
+        <v>75.70981996572964</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.85492178144616</v>
+        <v>56.85492178144617</v>
       </c>
       <c r="R32" t="n">
-        <v>33.07208371569972</v>
+        <v>33.07208371569973</v>
       </c>
       <c r="S32" t="n">
         <v>11.99737500521772</v>
       </c>
       <c r="T32" t="n">
-        <v>2.304706926400023</v>
+        <v>2.304706926400024</v>
       </c>
       <c r="U32" t="n">
         <v>0.04211914428600839</v>
@@ -33488,43 +33488,43 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2816966118137934</v>
+        <v>0.2816966118137935</v>
       </c>
       <c r="H33" t="n">
-        <v>2.720596224622689</v>
+        <v>2.72059622462269</v>
       </c>
       <c r="I33" t="n">
-        <v>9.698764924290696</v>
+        <v>9.698764924290698</v>
       </c>
       <c r="J33" t="n">
-        <v>26.61415225912686</v>
+        <v>26.61415225912687</v>
       </c>
       <c r="K33" t="n">
-        <v>45.48782525065102</v>
+        <v>45.48782525065103</v>
       </c>
       <c r="L33" t="n">
-        <v>61.16399459579756</v>
+        <v>61.16399459579758</v>
       </c>
       <c r="M33" t="n">
-        <v>71.37549677404756</v>
+        <v>71.37549677404758</v>
       </c>
       <c r="N33" t="n">
-        <v>73.26459378923744</v>
+        <v>73.26459378923745</v>
       </c>
       <c r="O33" t="n">
-        <v>67.02278991694233</v>
+        <v>67.02278991694234</v>
       </c>
       <c r="P33" t="n">
-        <v>53.79169774188131</v>
+        <v>53.79169774188132</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.95832539573966</v>
+        <v>35.95832539573968</v>
       </c>
       <c r="R33" t="n">
         <v>17.48990016156167</v>
       </c>
       <c r="S33" t="n">
-        <v>5.232391013295676</v>
+        <v>5.232391013295678</v>
       </c>
       <c r="T33" t="n">
         <v>1.135435027442439</v>
@@ -33570,31 +33570,31 @@
         <v>0.2361649765421938</v>
       </c>
       <c r="H34" t="n">
-        <v>2.099721336893324</v>
+        <v>2.099721336893325</v>
       </c>
       <c r="I34" t="n">
-        <v>7.102124930923429</v>
+        <v>7.102124930923431</v>
       </c>
       <c r="J34" t="n">
         <v>16.6968638415331</v>
       </c>
       <c r="K34" t="n">
-        <v>27.4380763655385</v>
+        <v>27.43807636553851</v>
       </c>
       <c r="L34" t="n">
-        <v>35.11129114882761</v>
+        <v>35.11129114882762</v>
       </c>
       <c r="M34" t="n">
         <v>37.01993355015497</v>
       </c>
       <c r="N34" t="n">
-        <v>36.13968227395227</v>
+        <v>36.13968227395228</v>
       </c>
       <c r="O34" t="n">
-        <v>33.380845957073</v>
+        <v>33.38084595707301</v>
       </c>
       <c r="P34" t="n">
-        <v>28.56308043561222</v>
+        <v>28.56308043561223</v>
       </c>
       <c r="Q34" t="n">
         <v>19.77559635391043</v>
@@ -33603,13 +33603,13 @@
         <v>10.61883612706991</v>
       </c>
       <c r="S34" t="n">
-        <v>4.115711454830775</v>
+        <v>4.115711454830776</v>
       </c>
       <c r="T34" t="n">
-        <v>1.009068536134827</v>
+        <v>1.009068536134828</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01288172599321058</v>
+        <v>0.01288172599321059</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5264893035751049</v>
+        <v>0.526489303575105</v>
       </c>
       <c r="H35" t="n">
-        <v>5.391908580238545</v>
+        <v>5.391908580238546</v>
       </c>
       <c r="I35" t="n">
-        <v>20.29747887607925</v>
+        <v>20.29747887607926</v>
       </c>
       <c r="J35" t="n">
-        <v>44.68512152930761</v>
+        <v>44.68512152930762</v>
       </c>
       <c r="K35" t="n">
-        <v>66.97141374964181</v>
+        <v>66.97141374964183</v>
       </c>
       <c r="L35" t="n">
-        <v>83.08396077392845</v>
+        <v>83.08396077392847</v>
       </c>
       <c r="M35" t="n">
-        <v>92.44691492638222</v>
+        <v>92.44691492638223</v>
       </c>
       <c r="N35" t="n">
-        <v>93.94280266016499</v>
+        <v>93.94280266016501</v>
       </c>
       <c r="O35" t="n">
-        <v>88.70752464774003</v>
+        <v>88.70752464774006</v>
       </c>
       <c r="P35" t="n">
-        <v>75.70981996572962</v>
+        <v>75.70981996572964</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.85492178144616</v>
+        <v>56.85492178144617</v>
       </c>
       <c r="R35" t="n">
-        <v>33.07208371569972</v>
+        <v>33.07208371569973</v>
       </c>
       <c r="S35" t="n">
         <v>11.99737500521772</v>
       </c>
       <c r="T35" t="n">
-        <v>2.304706926400023</v>
+        <v>2.304706926400024</v>
       </c>
       <c r="U35" t="n">
         <v>0.04211914428600839</v>
@@ -33725,43 +33725,43 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2816966118137934</v>
+        <v>0.2816966118137935</v>
       </c>
       <c r="H36" t="n">
-        <v>2.720596224622689</v>
+        <v>2.72059622462269</v>
       </c>
       <c r="I36" t="n">
-        <v>9.698764924290696</v>
+        <v>9.698764924290698</v>
       </c>
       <c r="J36" t="n">
-        <v>26.61415225912686</v>
+        <v>26.61415225912687</v>
       </c>
       <c r="K36" t="n">
-        <v>45.48782525065102</v>
+        <v>45.48782525065103</v>
       </c>
       <c r="L36" t="n">
-        <v>61.16399459579756</v>
+        <v>61.16399459579758</v>
       </c>
       <c r="M36" t="n">
-        <v>71.37549677404756</v>
+        <v>71.37549677404758</v>
       </c>
       <c r="N36" t="n">
-        <v>73.26459378923744</v>
+        <v>73.26459378923745</v>
       </c>
       <c r="O36" t="n">
-        <v>67.02278991694233</v>
+        <v>67.02278991694234</v>
       </c>
       <c r="P36" t="n">
-        <v>53.79169774188131</v>
+        <v>53.79169774188132</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.95832539573966</v>
+        <v>35.95832539573968</v>
       </c>
       <c r="R36" t="n">
         <v>17.48990016156167</v>
       </c>
       <c r="S36" t="n">
-        <v>5.232391013295676</v>
+        <v>5.232391013295678</v>
       </c>
       <c r="T36" t="n">
         <v>1.135435027442439</v>
@@ -33807,31 +33807,31 @@
         <v>0.2361649765421938</v>
       </c>
       <c r="H37" t="n">
-        <v>2.099721336893324</v>
+        <v>2.099721336893325</v>
       </c>
       <c r="I37" t="n">
-        <v>7.102124930923429</v>
+        <v>7.102124930923431</v>
       </c>
       <c r="J37" t="n">
         <v>16.6968638415331</v>
       </c>
       <c r="K37" t="n">
-        <v>27.4380763655385</v>
+        <v>27.43807636553851</v>
       </c>
       <c r="L37" t="n">
-        <v>35.11129114882761</v>
+        <v>35.11129114882762</v>
       </c>
       <c r="M37" t="n">
         <v>37.01993355015497</v>
       </c>
       <c r="N37" t="n">
-        <v>36.13968227395227</v>
+        <v>36.13968227395228</v>
       </c>
       <c r="O37" t="n">
-        <v>33.380845957073</v>
+        <v>33.38084595707301</v>
       </c>
       <c r="P37" t="n">
-        <v>28.56308043561222</v>
+        <v>28.56308043561223</v>
       </c>
       <c r="Q37" t="n">
         <v>19.77559635391043</v>
@@ -33840,13 +33840,13 @@
         <v>10.61883612706991</v>
       </c>
       <c r="S37" t="n">
-        <v>4.115711454830775</v>
+        <v>4.115711454830776</v>
       </c>
       <c r="T37" t="n">
-        <v>1.009068536134827</v>
+        <v>1.009068536134828</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01288172599321058</v>
+        <v>0.01288172599321059</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5264893035751049</v>
+        <v>0.526489303575105</v>
       </c>
       <c r="H38" t="n">
-        <v>5.391908580238545</v>
+        <v>5.391908580238546</v>
       </c>
       <c r="I38" t="n">
-        <v>20.29747887607925</v>
+        <v>20.29747887607926</v>
       </c>
       <c r="J38" t="n">
-        <v>44.68512152930761</v>
+        <v>44.68512152930762</v>
       </c>
       <c r="K38" t="n">
-        <v>66.97141374964181</v>
+        <v>66.97141374964183</v>
       </c>
       <c r="L38" t="n">
-        <v>83.08396077392845</v>
+        <v>83.08396077392847</v>
       </c>
       <c r="M38" t="n">
-        <v>92.44691492638222</v>
+        <v>92.44691492638223</v>
       </c>
       <c r="N38" t="n">
-        <v>93.94280266016499</v>
+        <v>93.94280266016501</v>
       </c>
       <c r="O38" t="n">
-        <v>88.70752464774003</v>
+        <v>88.70752464774006</v>
       </c>
       <c r="P38" t="n">
-        <v>75.70981996572962</v>
+        <v>75.70981996572964</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.85492178144616</v>
+        <v>56.85492178144617</v>
       </c>
       <c r="R38" t="n">
-        <v>33.07208371569972</v>
+        <v>33.07208371569973</v>
       </c>
       <c r="S38" t="n">
         <v>11.99737500521772</v>
       </c>
       <c r="T38" t="n">
-        <v>2.304706926400023</v>
+        <v>2.304706926400024</v>
       </c>
       <c r="U38" t="n">
         <v>0.04211914428600839</v>
@@ -33962,43 +33962,43 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2816966118137934</v>
+        <v>0.2816966118137935</v>
       </c>
       <c r="H39" t="n">
-        <v>2.720596224622689</v>
+        <v>2.72059622462269</v>
       </c>
       <c r="I39" t="n">
-        <v>9.698764924290696</v>
+        <v>9.698764924290698</v>
       </c>
       <c r="J39" t="n">
-        <v>26.61415225912686</v>
+        <v>26.61415225912687</v>
       </c>
       <c r="K39" t="n">
-        <v>45.48782525065102</v>
+        <v>45.48782525065103</v>
       </c>
       <c r="L39" t="n">
-        <v>61.16399459579756</v>
+        <v>61.16399459579758</v>
       </c>
       <c r="M39" t="n">
-        <v>71.37549677404756</v>
+        <v>71.37549677404758</v>
       </c>
       <c r="N39" t="n">
-        <v>73.26459378923744</v>
+        <v>73.26459378923745</v>
       </c>
       <c r="O39" t="n">
-        <v>67.02278991694233</v>
+        <v>67.02278991694234</v>
       </c>
       <c r="P39" t="n">
-        <v>53.79169774188131</v>
+        <v>53.79169774188132</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.95832539573966</v>
+        <v>35.95832539573968</v>
       </c>
       <c r="R39" t="n">
         <v>17.48990016156167</v>
       </c>
       <c r="S39" t="n">
-        <v>5.232391013295676</v>
+        <v>5.232391013295678</v>
       </c>
       <c r="T39" t="n">
         <v>1.135435027442439</v>
@@ -34044,31 +34044,31 @@
         <v>0.2361649765421938</v>
       </c>
       <c r="H40" t="n">
-        <v>2.099721336893324</v>
+        <v>2.099721336893325</v>
       </c>
       <c r="I40" t="n">
-        <v>7.102124930923429</v>
+        <v>7.102124930923431</v>
       </c>
       <c r="J40" t="n">
         <v>16.6968638415331</v>
       </c>
       <c r="K40" t="n">
-        <v>27.4380763655385</v>
+        <v>27.43807636553851</v>
       </c>
       <c r="L40" t="n">
-        <v>35.11129114882761</v>
+        <v>35.11129114882762</v>
       </c>
       <c r="M40" t="n">
         <v>37.01993355015497</v>
       </c>
       <c r="N40" t="n">
-        <v>36.13968227395227</v>
+        <v>36.13968227395228</v>
       </c>
       <c r="O40" t="n">
-        <v>33.380845957073</v>
+        <v>33.38084595707301</v>
       </c>
       <c r="P40" t="n">
-        <v>28.56308043561222</v>
+        <v>28.56308043561223</v>
       </c>
       <c r="Q40" t="n">
         <v>19.77559635391043</v>
@@ -34077,13 +34077,13 @@
         <v>10.61883612706991</v>
       </c>
       <c r="S40" t="n">
-        <v>4.115711454830775</v>
+        <v>4.115711454830776</v>
       </c>
       <c r="T40" t="n">
-        <v>1.009068536134827</v>
+        <v>1.009068536134828</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01288172599321058</v>
+        <v>0.01288172599321059</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5264893035751049</v>
+        <v>0.526489303575105</v>
       </c>
       <c r="H41" t="n">
-        <v>5.391908580238545</v>
+        <v>5.391908580238546</v>
       </c>
       <c r="I41" t="n">
-        <v>20.29747887607925</v>
+        <v>20.29747887607926</v>
       </c>
       <c r="J41" t="n">
-        <v>44.68512152930761</v>
+        <v>44.68512152930762</v>
       </c>
       <c r="K41" t="n">
-        <v>66.97141374964181</v>
+        <v>66.97141374964183</v>
       </c>
       <c r="L41" t="n">
-        <v>83.08396077392845</v>
+        <v>83.08396077392847</v>
       </c>
       <c r="M41" t="n">
-        <v>92.44691492638222</v>
+        <v>92.44691492638223</v>
       </c>
       <c r="N41" t="n">
-        <v>93.94280266016499</v>
+        <v>93.94280266016501</v>
       </c>
       <c r="O41" t="n">
-        <v>88.70752464774003</v>
+        <v>88.70752464774006</v>
       </c>
       <c r="P41" t="n">
-        <v>75.70981996572962</v>
+        <v>75.70981996572964</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.85492178144616</v>
+        <v>56.85492178144617</v>
       </c>
       <c r="R41" t="n">
-        <v>33.07208371569972</v>
+        <v>33.07208371569973</v>
       </c>
       <c r="S41" t="n">
         <v>11.99737500521772</v>
       </c>
       <c r="T41" t="n">
-        <v>2.304706926400023</v>
+        <v>2.304706926400024</v>
       </c>
       <c r="U41" t="n">
         <v>0.04211914428600839</v>
@@ -34199,43 +34199,43 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2816966118137934</v>
+        <v>0.2816966118137935</v>
       </c>
       <c r="H42" t="n">
-        <v>2.720596224622689</v>
+        <v>2.72059622462269</v>
       </c>
       <c r="I42" t="n">
-        <v>9.698764924290696</v>
+        <v>9.698764924290698</v>
       </c>
       <c r="J42" t="n">
-        <v>26.61415225912686</v>
+        <v>26.61415225912687</v>
       </c>
       <c r="K42" t="n">
-        <v>45.48782525065102</v>
+        <v>45.48782525065103</v>
       </c>
       <c r="L42" t="n">
-        <v>61.16399459579756</v>
+        <v>61.16399459579758</v>
       </c>
       <c r="M42" t="n">
-        <v>71.37549677404756</v>
+        <v>71.37549677404758</v>
       </c>
       <c r="N42" t="n">
-        <v>73.26459378923744</v>
+        <v>73.26459378923745</v>
       </c>
       <c r="O42" t="n">
-        <v>67.02278991694233</v>
+        <v>67.02278991694234</v>
       </c>
       <c r="P42" t="n">
-        <v>53.79169774188131</v>
+        <v>53.79169774188132</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.95832539573966</v>
+        <v>35.95832539573968</v>
       </c>
       <c r="R42" t="n">
         <v>17.48990016156167</v>
       </c>
       <c r="S42" t="n">
-        <v>5.232391013295676</v>
+        <v>5.232391013295678</v>
       </c>
       <c r="T42" t="n">
         <v>1.135435027442439</v>
@@ -34281,31 +34281,31 @@
         <v>0.2361649765421938</v>
       </c>
       <c r="H43" t="n">
-        <v>2.099721336893324</v>
+        <v>2.099721336893325</v>
       </c>
       <c r="I43" t="n">
-        <v>7.102124930923429</v>
+        <v>7.102124930923431</v>
       </c>
       <c r="J43" t="n">
         <v>16.6968638415331</v>
       </c>
       <c r="K43" t="n">
-        <v>27.4380763655385</v>
+        <v>27.43807636553851</v>
       </c>
       <c r="L43" t="n">
-        <v>35.11129114882761</v>
+        <v>35.11129114882762</v>
       </c>
       <c r="M43" t="n">
         <v>37.01993355015497</v>
       </c>
       <c r="N43" t="n">
-        <v>36.13968227395227</v>
+        <v>36.13968227395228</v>
       </c>
       <c r="O43" t="n">
-        <v>33.380845957073</v>
+        <v>33.38084595707301</v>
       </c>
       <c r="P43" t="n">
-        <v>28.56308043561222</v>
+        <v>28.56308043561223</v>
       </c>
       <c r="Q43" t="n">
         <v>19.77559635391043</v>
@@ -34314,13 +34314,13 @@
         <v>10.61883612706991</v>
       </c>
       <c r="S43" t="n">
-        <v>4.115711454830775</v>
+        <v>4.115711454830776</v>
       </c>
       <c r="T43" t="n">
-        <v>1.009068536134827</v>
+        <v>1.009068536134828</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01288172599321058</v>
+        <v>0.01288172599321059</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5264893035751049</v>
+        <v>0.526489303575105</v>
       </c>
       <c r="H44" t="n">
-        <v>5.391908580238545</v>
+        <v>5.391908580238546</v>
       </c>
       <c r="I44" t="n">
-        <v>20.29747887607925</v>
+        <v>20.29747887607926</v>
       </c>
       <c r="J44" t="n">
-        <v>44.68512152930761</v>
+        <v>44.68512152930762</v>
       </c>
       <c r="K44" t="n">
-        <v>66.97141374964181</v>
+        <v>66.97141374964183</v>
       </c>
       <c r="L44" t="n">
-        <v>83.08396077392845</v>
+        <v>83.08396077392847</v>
       </c>
       <c r="M44" t="n">
-        <v>92.44691492638222</v>
+        <v>92.44691492638223</v>
       </c>
       <c r="N44" t="n">
-        <v>93.94280266016499</v>
+        <v>93.94280266016501</v>
       </c>
       <c r="O44" t="n">
-        <v>88.70752464774003</v>
+        <v>88.70752464774006</v>
       </c>
       <c r="P44" t="n">
-        <v>75.70981996572962</v>
+        <v>75.70981996572964</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.85492178144616</v>
+        <v>56.85492178144617</v>
       </c>
       <c r="R44" t="n">
-        <v>33.07208371569972</v>
+        <v>33.07208371569973</v>
       </c>
       <c r="S44" t="n">
         <v>11.99737500521772</v>
       </c>
       <c r="T44" t="n">
-        <v>2.304706926400023</v>
+        <v>2.304706926400024</v>
       </c>
       <c r="U44" t="n">
         <v>0.04211914428600839</v>
@@ -34436,43 +34436,43 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2816966118137934</v>
+        <v>0.2816966118137935</v>
       </c>
       <c r="H45" t="n">
-        <v>2.720596224622689</v>
+        <v>2.72059622462269</v>
       </c>
       <c r="I45" t="n">
-        <v>9.698764924290696</v>
+        <v>9.698764924290698</v>
       </c>
       <c r="J45" t="n">
-        <v>26.61415225912686</v>
+        <v>26.61415225912687</v>
       </c>
       <c r="K45" t="n">
-        <v>45.48782525065102</v>
+        <v>45.48782525065103</v>
       </c>
       <c r="L45" t="n">
-        <v>61.16399459579756</v>
+        <v>61.16399459579758</v>
       </c>
       <c r="M45" t="n">
-        <v>71.37549677404756</v>
+        <v>71.37549677404758</v>
       </c>
       <c r="N45" t="n">
-        <v>73.26459378923744</v>
+        <v>73.26459378923745</v>
       </c>
       <c r="O45" t="n">
-        <v>67.02278991694233</v>
+        <v>67.02278991694234</v>
       </c>
       <c r="P45" t="n">
-        <v>53.79169774188131</v>
+        <v>53.79169774188132</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.95832539573966</v>
+        <v>35.95832539573968</v>
       </c>
       <c r="R45" t="n">
         <v>17.48990016156167</v>
       </c>
       <c r="S45" t="n">
-        <v>5.232391013295676</v>
+        <v>5.232391013295678</v>
       </c>
       <c r="T45" t="n">
         <v>1.135435027442439</v>
@@ -34518,31 +34518,31 @@
         <v>0.2361649765421938</v>
       </c>
       <c r="H46" t="n">
-        <v>2.099721336893324</v>
+        <v>2.099721336893325</v>
       </c>
       <c r="I46" t="n">
-        <v>7.102124930923429</v>
+        <v>7.102124930923431</v>
       </c>
       <c r="J46" t="n">
         <v>16.6968638415331</v>
       </c>
       <c r="K46" t="n">
-        <v>27.4380763655385</v>
+        <v>27.43807636553851</v>
       </c>
       <c r="L46" t="n">
-        <v>35.11129114882761</v>
+        <v>35.11129114882762</v>
       </c>
       <c r="M46" t="n">
         <v>37.01993355015497</v>
       </c>
       <c r="N46" t="n">
-        <v>36.13968227395227</v>
+        <v>36.13968227395228</v>
       </c>
       <c r="O46" t="n">
-        <v>33.380845957073</v>
+        <v>33.38084595707301</v>
       </c>
       <c r="P46" t="n">
-        <v>28.56308043561222</v>
+        <v>28.56308043561223</v>
       </c>
       <c r="Q46" t="n">
         <v>19.77559635391043</v>
@@ -34551,13 +34551,13 @@
         <v>10.61883612706991</v>
       </c>
       <c r="S46" t="n">
-        <v>4.115711454830775</v>
+        <v>4.115711454830776</v>
       </c>
       <c r="T46" t="n">
-        <v>1.009068536134827</v>
+        <v>1.009068536134828</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01288172599321058</v>
+        <v>0.01288172599321059</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>44.02584439474577</v>
+        <v>44.02584439474518</v>
       </c>
       <c r="K11" t="n">
-        <v>189.495038054797</v>
+        <v>189.4950380547971</v>
       </c>
       <c r="L11" t="n">
-        <v>287.5793693106592</v>
+        <v>287.5793693106593</v>
       </c>
       <c r="M11" t="n">
-        <v>335.353412362337</v>
+        <v>335.3534123623371</v>
       </c>
       <c r="N11" t="n">
-        <v>325.1058670419522</v>
+        <v>325.1058670419523</v>
       </c>
       <c r="O11" t="n">
-        <v>260.3939570248505</v>
+        <v>260.3939570248506</v>
       </c>
       <c r="P11" t="n">
         <v>184.9283056026837</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.9144644401587</v>
+        <v>60.91446444015876</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>34.08214301315198</v>
+        <v>34.08214301315201</v>
       </c>
       <c r="K12" t="n">
-        <v>186.1362687437327</v>
+        <v>186.1362687437328</v>
       </c>
       <c r="L12" t="n">
-        <v>311.7474334260177</v>
+        <v>251.8706944120063</v>
       </c>
       <c r="M12" t="n">
-        <v>417.1280800000795</v>
+        <v>417.1280800000796</v>
       </c>
       <c r="N12" t="n">
-        <v>28.76966461219914</v>
+        <v>426.2546672576179</v>
       </c>
       <c r="O12" t="n">
-        <v>337.6082636314076</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>254.3679298984439</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.04535403067436</v>
+        <v>50.04535403067437</v>
       </c>
       <c r="K13" t="n">
         <v>134.8510017646254</v>
@@ -35577,16 +35577,16 @@
         <v>209.4046766639837</v>
       </c>
       <c r="N13" t="n">
-        <v>212.5240370555103</v>
+        <v>212.5240370555104</v>
       </c>
       <c r="O13" t="n">
-        <v>190.1363891039642</v>
+        <v>190.1363891039643</v>
       </c>
       <c r="P13" t="n">
         <v>156.8724374512163</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.20223159498245</v>
+        <v>62.20223159498246</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.02584439474519</v>
+        <v>44.02584439474513</v>
       </c>
       <c r="K14" t="n">
-        <v>189.4950380547971</v>
+        <v>189.4950380547977</v>
       </c>
       <c r="L14" t="n">
-        <v>287.5793693106593</v>
+        <v>287.5793693106592</v>
       </c>
       <c r="M14" t="n">
-        <v>335.3534123623372</v>
+        <v>335.353412362337</v>
       </c>
       <c r="N14" t="n">
-        <v>325.1058670419523</v>
+        <v>325.1058670419522</v>
       </c>
       <c r="O14" t="n">
-        <v>260.3939570248506</v>
+        <v>260.3939570248505</v>
       </c>
       <c r="P14" t="n">
-        <v>184.9283056026838</v>
+        <v>184.9283056026837</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.91446444015877</v>
+        <v>60.9144644401587</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>34.08214301315201</v>
+        <v>34.08214301315198</v>
       </c>
       <c r="K15" t="n">
-        <v>186.1362687437328</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>311.7474334260178</v>
+        <v>311.7474334260177</v>
       </c>
       <c r="M15" t="n">
-        <v>417.1280800000796</v>
+        <v>417.1280800000795</v>
       </c>
       <c r="N15" t="n">
         <v>426.254667257618</v>
       </c>
       <c r="O15" t="n">
-        <v>58.07973589314035</v>
+        <v>244.2160046368732</v>
       </c>
       <c r="P15" t="n">
         <v>254.3679298984439</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.04535403067437</v>
+        <v>50.04535403067436</v>
       </c>
       <c r="K16" t="n">
         <v>134.8510017646254</v>
@@ -35811,19 +35811,19 @@
         <v>194.7597564947571</v>
       </c>
       <c r="M16" t="n">
-        <v>209.4046766639838</v>
+        <v>209.4046766639837</v>
       </c>
       <c r="N16" t="n">
-        <v>212.5240370555104</v>
+        <v>212.5240370555103</v>
       </c>
       <c r="O16" t="n">
-        <v>190.1363891039643</v>
+        <v>190.1363891039642</v>
       </c>
       <c r="P16" t="n">
         <v>156.8724374512163</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.20223159498246</v>
+        <v>62.20223159498245</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>44.02584439474519</v>
+        <v>44.02584439474518</v>
       </c>
       <c r="K17" t="n">
-        <v>189.4950380547973</v>
+        <v>189.4950380547971</v>
       </c>
       <c r="L17" t="n">
         <v>287.5793693106593</v>
       </c>
       <c r="M17" t="n">
-        <v>335.3534123623372</v>
+        <v>335.3534123623371</v>
       </c>
       <c r="N17" t="n">
         <v>325.1058670419523</v>
@@ -35899,10 +35899,10 @@
         <v>260.3939570248506</v>
       </c>
       <c r="P17" t="n">
-        <v>184.9283056026838</v>
+        <v>184.9283056026837</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.91446444015877</v>
+        <v>60.91446444015876</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>34.08214301315201</v>
       </c>
       <c r="K18" t="n">
-        <v>186.1362687437328</v>
+        <v>43.01919599675768</v>
       </c>
       <c r="L18" t="n">
-        <v>311.7474334260178</v>
+        <v>311.7474334260177</v>
       </c>
       <c r="M18" t="n">
         <v>417.1280800000796</v>
       </c>
       <c r="N18" t="n">
-        <v>28.7696646121988</v>
+        <v>426.254667257618</v>
       </c>
       <c r="O18" t="n">
         <v>337.6082636314077</v>
       </c>
       <c r="P18" t="n">
-        <v>254.3679298984439</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>117.9564749071518</v>
+        <v>117.9564749071517</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,16 +36048,16 @@
         <v>72.57242137783689</v>
       </c>
       <c r="M19" t="n">
-        <v>87.21734154706354</v>
+        <v>87.21734154706353</v>
       </c>
       <c r="N19" t="n">
-        <v>90.33670193859017</v>
+        <v>90.33670193859015</v>
       </c>
       <c r="O19" t="n">
-        <v>67.94905398704407</v>
+        <v>67.94905398704405</v>
       </c>
       <c r="P19" t="n">
-        <v>34.68510233429606</v>
+        <v>34.68510233429605</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44.02584439474519</v>
+        <v>44.02584439474518</v>
       </c>
       <c r="K20" t="n">
         <v>189.4950380547971</v>
@@ -36136,10 +36136,10 @@
         <v>260.3939570248506</v>
       </c>
       <c r="P20" t="n">
-        <v>184.9283056026838</v>
+        <v>184.9283056026837</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.91446444015903</v>
+        <v>60.91446444015876</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>186.1362687437328</v>
       </c>
       <c r="L21" t="n">
-        <v>311.7474334260178</v>
+        <v>311.7474334260177</v>
       </c>
       <c r="M21" t="n">
         <v>417.1280800000796</v>
       </c>
       <c r="N21" t="n">
-        <v>28.7696646121988</v>
+        <v>426.2546672576179</v>
       </c>
       <c r="O21" t="n">
-        <v>337.6082636314077</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>254.3679298984439</v>
+        <v>194.4911908844325</v>
       </c>
       <c r="Q21" t="n">
-        <v>117.9564749071518</v>
+        <v>117.9564749071517</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,16 +36285,16 @@
         <v>72.57242137783689</v>
       </c>
       <c r="M22" t="n">
-        <v>87.21734154706354</v>
+        <v>87.21734154706353</v>
       </c>
       <c r="N22" t="n">
-        <v>90.33670193859017</v>
+        <v>90.33670193859015</v>
       </c>
       <c r="O22" t="n">
-        <v>67.94905398704407</v>
+        <v>67.94905398704405</v>
       </c>
       <c r="P22" t="n">
-        <v>34.68510233429606</v>
+        <v>34.68510233429605</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>44.02584439474519</v>
+        <v>44.02584439474518</v>
       </c>
       <c r="K23" t="n">
-        <v>189.4950380547971</v>
+        <v>189.4950380547974</v>
       </c>
       <c r="L23" t="n">
         <v>287.5793693106593</v>
       </c>
       <c r="M23" t="n">
-        <v>335.3534123623372</v>
+        <v>335.3534123623371</v>
       </c>
       <c r="N23" t="n">
         <v>325.1058670419523</v>
@@ -36373,10 +36373,10 @@
         <v>260.3939570248506</v>
       </c>
       <c r="P23" t="n">
-        <v>184.928305602684</v>
+        <v>184.9283056026837</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.91446444015877</v>
+        <v>60.91446444015876</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>134.4808425374835</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>311.7474334260177</v>
       </c>
       <c r="M24" t="n">
         <v>417.1280800000796</v>
       </c>
       <c r="N24" t="n">
-        <v>426.254667257618</v>
+        <v>366.9445512762356</v>
       </c>
       <c r="O24" t="n">
         <v>337.6082636314077</v>
@@ -36455,7 +36455,7 @@
         <v>254.3679298984439</v>
       </c>
       <c r="Q24" t="n">
-        <v>117.9564749071518</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,16 +36522,16 @@
         <v>72.57242137783689</v>
       </c>
       <c r="M25" t="n">
-        <v>87.21734154706354</v>
+        <v>87.21734154706353</v>
       </c>
       <c r="N25" t="n">
-        <v>90.33670193859017</v>
+        <v>90.33670193859015</v>
       </c>
       <c r="O25" t="n">
-        <v>67.94905398704407</v>
+        <v>67.94905398704405</v>
       </c>
       <c r="P25" t="n">
-        <v>34.68510233429606</v>
+        <v>34.68510233429605</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.1155978370194</v>
+        <v>186.1155978370184</v>
       </c>
       <c r="K26" t="n">
         <v>331.5847914970713</v>
@@ -36607,16 +36607,16 @@
         <v>467.1956204842265</v>
       </c>
       <c r="O26" t="n">
-        <v>402.483710467124</v>
+        <v>402.4837104671248</v>
       </c>
       <c r="P26" t="n">
-        <v>327.0180590449579</v>
+        <v>327.018059044958</v>
       </c>
       <c r="Q26" t="n">
         <v>203.004217882433</v>
       </c>
       <c r="R26" t="n">
-        <v>33.31101445709682</v>
+        <v>33.31101445709684</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>186.1362687437328</v>
       </c>
       <c r="L27" t="n">
-        <v>311.7474334260178</v>
+        <v>311.7474334260177</v>
       </c>
       <c r="M27" t="n">
         <v>417.1280800000796</v>
@@ -36692,7 +36692,7 @@
         <v>254.3679298984439</v>
       </c>
       <c r="Q27" t="n">
-        <v>117.9564749071518</v>
+        <v>117.9564749071517</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.94777235602834</v>
+        <v>69.94777235602837</v>
       </c>
       <c r="K28" t="n">
-        <v>154.7534200899793</v>
+        <v>12.66366664770515</v>
       </c>
       <c r="L28" t="n">
         <v>72.57242137783689</v>
       </c>
       <c r="M28" t="n">
-        <v>87.21734154706354</v>
+        <v>87.21734154706353</v>
       </c>
       <c r="N28" t="n">
-        <v>174.572080557091</v>
+        <v>232.4264553808644</v>
       </c>
       <c r="O28" t="n">
-        <v>210.0388074293182</v>
+        <v>152.1844326055445</v>
       </c>
       <c r="P28" t="n">
-        <v>34.68510233429606</v>
+        <v>176.7748557765703</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.10464992033643</v>
+        <v>82.10464992033644</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>477.4431658046113</v>
       </c>
       <c r="N29" t="n">
-        <v>467.1956204842264</v>
+        <v>467.1956204842265</v>
       </c>
       <c r="O29" t="n">
         <v>402.4837104671248</v>
@@ -36853,7 +36853,7 @@
         <v>203.0042178824329</v>
       </c>
       <c r="R29" t="n">
-        <v>33.31101445709676</v>
+        <v>33.31101445709677</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>34.08214301315201</v>
+        <v>34.08214301315202</v>
       </c>
       <c r="K30" t="n">
         <v>186.1362687437328</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.94777235602828</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>12.66366664770515</v>
+        <v>106.8617141002978</v>
       </c>
       <c r="L31" t="n">
         <v>214.662174820111</v>
@@ -36999,13 +36999,13 @@
         <v>87.21734154706354</v>
       </c>
       <c r="N31" t="n">
-        <v>232.4264553808643</v>
+        <v>90.33670193859018</v>
       </c>
       <c r="O31" t="n">
         <v>210.0388074293182</v>
       </c>
       <c r="P31" t="n">
-        <v>58.9353774308605</v>
+        <v>176.7748557765702</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>186.1155978370193</v>
+        <v>186.1155978370189</v>
       </c>
       <c r="K32" t="n">
         <v>331.5847914970713</v>
@@ -37075,7 +37075,7 @@
         <v>429.6691227529334</v>
       </c>
       <c r="M32" t="n">
-        <v>477.4431658046111</v>
+        <v>477.4431658046113</v>
       </c>
       <c r="N32" t="n">
         <v>467.1956204842264</v>
@@ -37090,7 +37090,7 @@
         <v>203.0042178824329</v>
       </c>
       <c r="R32" t="n">
-        <v>33.31101445709673</v>
+        <v>33.31101445709674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>34.08214301315201</v>
+        <v>34.08214301315202</v>
       </c>
       <c r="K33" t="n">
         <v>186.1362687437328</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.94777235602825</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>154.7534200899792</v>
+        <v>12.66366664770516</v>
       </c>
       <c r="L34" t="n">
-        <v>72.57242137783689</v>
+        <v>72.5724213778369</v>
       </c>
       <c r="M34" t="n">
-        <v>87.21734154706354</v>
+        <v>229.3070949893376</v>
       </c>
       <c r="N34" t="n">
-        <v>90.33670193859017</v>
+        <v>102.430099470847</v>
       </c>
       <c r="O34" t="n">
-        <v>152.1844326055468</v>
+        <v>210.0388074293182</v>
       </c>
       <c r="P34" t="n">
         <v>176.7748557765701</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>44.02584439474519</v>
+        <v>44.0258443947452</v>
       </c>
       <c r="K35" t="n">
         <v>189.4950380547971</v>
@@ -37315,16 +37315,16 @@
         <v>335.3534123623372</v>
       </c>
       <c r="N35" t="n">
-        <v>325.1058670419523</v>
+        <v>325.1058670419524</v>
       </c>
       <c r="O35" t="n">
-        <v>260.3939570248506</v>
+        <v>260.3939570248507</v>
       </c>
       <c r="P35" t="n">
         <v>184.9283056026838</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.91446444015877</v>
+        <v>60.91446444015878</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>34.08214301315201</v>
+        <v>34.08214301315202</v>
       </c>
       <c r="K36" t="n">
         <v>186.1362687437328</v>
       </c>
       <c r="L36" t="n">
-        <v>311.7474334260178</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>19.6430773546605</v>
+        <v>417.1280800000796</v>
       </c>
       <c r="N36" t="n">
         <v>426.254667257618</v>
       </c>
       <c r="O36" t="n">
-        <v>337.6082636314077</v>
+        <v>251.8706944120062</v>
       </c>
       <c r="P36" t="n">
         <v>254.3679298984439</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>12.66366664770515</v>
+        <v>12.66366664770516</v>
       </c>
       <c r="L37" t="n">
-        <v>72.57242137783689</v>
+        <v>72.5724213778369</v>
       </c>
       <c r="M37" t="n">
         <v>87.21734154706354</v>
       </c>
       <c r="N37" t="n">
-        <v>90.33670193859017</v>
+        <v>90.33670193859018</v>
       </c>
       <c r="O37" t="n">
         <v>67.94905398704407</v>
       </c>
       <c r="P37" t="n">
-        <v>34.68510233429606</v>
+        <v>34.68510233429607</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>44.02584439474519</v>
+        <v>44.0258443947452</v>
       </c>
       <c r="K38" t="n">
         <v>189.4950380547971</v>
@@ -37552,16 +37552,16 @@
         <v>335.3534123623372</v>
       </c>
       <c r="N38" t="n">
-        <v>325.1058670419523</v>
+        <v>325.1058670419524</v>
       </c>
       <c r="O38" t="n">
-        <v>260.3939570248506</v>
+        <v>260.3939570248507</v>
       </c>
       <c r="P38" t="n">
         <v>184.9283056026838</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.91446444015877</v>
+        <v>60.91446444015878</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>34.08214301315201</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>186.1362687437328</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>311.7474334260178</v>
       </c>
       <c r="M39" t="n">
         <v>417.1280800000796</v>
       </c>
       <c r="N39" t="n">
-        <v>340.5170980382164</v>
+        <v>426.254667257618</v>
       </c>
       <c r="O39" t="n">
-        <v>337.6082636314077</v>
+        <v>278.2981476500249</v>
       </c>
       <c r="P39" t="n">
         <v>254.3679298984439</v>
       </c>
       <c r="Q39" t="n">
-        <v>117.9564749071518</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.66366664770515</v>
+        <v>12.66366664770516</v>
       </c>
       <c r="L40" t="n">
-        <v>72.57242137783689</v>
+        <v>72.5724213778369</v>
       </c>
       <c r="M40" t="n">
         <v>87.21734154706354</v>
       </c>
       <c r="N40" t="n">
-        <v>90.33670193859017</v>
+        <v>90.33670193859018</v>
       </c>
       <c r="O40" t="n">
         <v>67.94905398704407</v>
       </c>
       <c r="P40" t="n">
-        <v>34.68510233429606</v>
+        <v>34.68510233429607</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>44.02584439474519</v>
+        <v>44.0258443947452</v>
       </c>
       <c r="K41" t="n">
         <v>189.4950380547971</v>
       </c>
       <c r="L41" t="n">
-        <v>314.6181570411201</v>
+        <v>287.5793693106593</v>
       </c>
       <c r="M41" t="n">
-        <v>335.3534123623372</v>
+        <v>362.3922000927984</v>
       </c>
       <c r="N41" t="n">
-        <v>325.1058670419523</v>
+        <v>325.1058670419524</v>
       </c>
       <c r="O41" t="n">
-        <v>260.3939570248506</v>
+        <v>260.3939570248507</v>
       </c>
       <c r="P41" t="n">
         <v>184.9283056026838</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.91446444015877</v>
+        <v>60.91446444015878</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34.08214301315201</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>186.1362687437328</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>311.7474334260178</v>
@@ -37868,13 +37868,13 @@
         <v>417.1280800000796</v>
       </c>
       <c r="N42" t="n">
-        <v>55.80845234265939</v>
+        <v>433.0833406895458</v>
       </c>
       <c r="O42" t="n">
         <v>337.6082636314077</v>
       </c>
       <c r="P42" t="n">
-        <v>254.3679298984439</v>
+        <v>97.31145330844323</v>
       </c>
       <c r="Q42" t="n">
         <v>117.9564749071518</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.66366664770515</v>
+        <v>12.66366664770516</v>
       </c>
       <c r="L43" t="n">
-        <v>72.57242137783689</v>
+        <v>72.5724213778369</v>
       </c>
       <c r="M43" t="n">
         <v>87.21734154706354</v>
       </c>
       <c r="N43" t="n">
-        <v>90.33670193859017</v>
+        <v>90.33670193859018</v>
       </c>
       <c r="O43" t="n">
         <v>67.94905398704407</v>
       </c>
       <c r="P43" t="n">
-        <v>34.68510233429606</v>
+        <v>34.68510233429607</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>44.02584439474519</v>
+        <v>44.0258443947452</v>
       </c>
       <c r="K44" t="n">
         <v>189.4950380547971</v>
@@ -38026,19 +38026,19 @@
         <v>335.3534123623372</v>
       </c>
       <c r="N44" t="n">
-        <v>352.1446547724129</v>
+        <v>325.1058670419524</v>
       </c>
       <c r="O44" t="n">
-        <v>260.3939570248506</v>
+        <v>260.3939570248507</v>
       </c>
       <c r="P44" t="n">
         <v>184.9283056026838</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.91446444015877</v>
+        <v>60.91446444015878</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>27.03878773046139</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.08214301315201</v>
+        <v>34.08214301315202</v>
       </c>
       <c r="K45" t="n">
         <v>186.1362687437328</v>
       </c>
       <c r="L45" t="n">
-        <v>311.7474334260178</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>39.85319165319353</v>
+        <v>417.1280800000796</v>
       </c>
       <c r="N45" t="n">
-        <v>433.0833406895455</v>
+        <v>433.0833406895458</v>
       </c>
       <c r="O45" t="n">
-        <v>337.6082636314077</v>
+        <v>272.0808087105398</v>
       </c>
       <c r="P45" t="n">
         <v>254.3679298984439</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.66366664770515</v>
+        <v>12.66366664770516</v>
       </c>
       <c r="L46" t="n">
-        <v>72.57242137783689</v>
+        <v>72.5724213778369</v>
       </c>
       <c r="M46" t="n">
         <v>87.21734154706354</v>
       </c>
       <c r="N46" t="n">
-        <v>90.33670193859017</v>
+        <v>90.33670193859018</v>
       </c>
       <c r="O46" t="n">
         <v>67.94905398704407</v>
       </c>
       <c r="P46" t="n">
-        <v>34.68510233429606</v>
+        <v>34.68510233429607</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
